--- a/volatility/src/xls/02_EURJPY_W.xlsx
+++ b/volatility/src/xls/02_EURJPY_W.xlsx
@@ -46,7 +46,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000000000000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000000000000_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -104,7 +104,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="17"/>
@@ -4721,7 +4721,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/volatility/src/xls/02_EURJPY_W.xlsx
+++ b/volatility/src/xls/02_EURJPY_W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="-80" windowWidth="26540" windowHeight="20920" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="26540" windowHeight="20920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="02_EURJPY_W.csv" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.000000000000000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -100,11 +100,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -437,13 +437,12 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="17"/>
   <cols>
-    <col min="14" max="14" width="12.83203125" style="2"/>
-    <col min="16" max="16" width="12.83203125" style="2"/>
+    <col min="14" max="15" width="12.83203125" style="5"/>
     <col min="17" max="17" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -474,20 +473,20 @@
         <f>MEDIAN(H1:H52)</f>
         <v>1.9489999999999981</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <f>I1*5/3</f>
         <v>3.24833333333333</v>
       </c>
-      <c r="L1" s="3">
-        <v>120</v>
-      </c>
-      <c r="N1" s="2">
-        <f>L1+$I$3</f>
-        <v>120.38979999999999</v>
-      </c>
-      <c r="P1" s="2">
-        <f>L1-$I$3</f>
-        <v>119.61020000000001</v>
+      <c r="L1" s="4">
+        <v>110</v>
+      </c>
+      <c r="N1" s="5">
+        <f>$L$1-($I$4*5)</f>
+        <v>108</v>
+      </c>
+      <c r="O1" s="5">
+        <f>$L$1+($I$4*1)</f>
+        <v>110.4</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -513,15 +512,15 @@
         <f t="shared" ref="H2:H52" si="0">ABS(D3-E3)</f>
         <v>1.8130000000000024</v>
       </c>
-      <c r="N2" s="2">
-        <f>N1+$I$3</f>
-        <v>120.77959999999999</v>
-      </c>
-      <c r="P2" s="2">
-        <f>P1-$I$3</f>
-        <v>119.22040000000001</v>
-      </c>
-      <c r="Q2" s="6"/>
+      <c r="N2" s="5">
+        <f>$L$1-($I$4*4)</f>
+        <v>108.4</v>
+      </c>
+      <c r="O2" s="5">
+        <f>$L$1+($I$4*2)</f>
+        <v>110.8</v>
+      </c>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3">
@@ -550,19 +549,19 @@
         <f>I1/5</f>
         <v>0.38979999999999959</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <f>(1000*20/J1)</f>
         <v>6157.0035915854351</v>
       </c>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N5" si="1">N2+$I$3</f>
-        <v>121.16939999999998</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" ref="P3:P5" si="2">P2-$I$3</f>
-        <v>118.83060000000002</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="N3" s="5">
+        <f>$L$1-($I$4*3)</f>
+        <v>108.8</v>
+      </c>
+      <c r="O3" s="5">
+        <f>$L$1+($I$4*3)</f>
+        <v>111.2</v>
+      </c>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4">
@@ -587,15 +586,19 @@
         <f t="shared" si="0"/>
         <v>1.9769999999999897</v>
       </c>
-      <c r="N4" s="2">
-        <f t="shared" si="1"/>
-        <v>121.55919999999998</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="2"/>
-        <v>118.44080000000002</v>
-      </c>
-      <c r="Q4" s="6"/>
+      <c r="I4">
+        <f>ROUND(I3,1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N4" s="5">
+        <f>$L$1-($I$4*2)</f>
+        <v>109.2</v>
+      </c>
+      <c r="O4" s="5">
+        <f>$L$1+($I$4*4)</f>
+        <v>111.6</v>
+      </c>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5">
@@ -620,15 +623,15 @@
         <f t="shared" si="0"/>
         <v>1.1570000000000107</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" si="1"/>
-        <v>121.94899999999997</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" si="2"/>
-        <v>118.05100000000003</v>
-      </c>
-      <c r="Q5" s="6"/>
+      <c r="N5" s="5">
+        <f>$L$1-($I$4*1)</f>
+        <v>109.6</v>
+      </c>
+      <c r="O5" s="5">
+        <f>$L$1+($I$4*5)</f>
+        <v>112</v>
+      </c>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
@@ -4719,6 +4722,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <extLst>

--- a/volatility/src/xls/02_EURJPY_W.xlsx
+++ b/volatility/src/xls/02_EURJPY_W.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="26540" windowHeight="20920" tabRatio="500"/>
+    <workbookView xWindow="10500" yWindow="-80" windowWidth="26540" windowHeight="20920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="02_EURJPY_W.csv" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.000000000000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000000000000_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
@@ -100,7 +100,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="17"/>
@@ -467,26 +467,26 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)</f>
-        <v>1.3170000000000073</v>
+        <v>1.6029999999999944</v>
       </c>
       <c r="I1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.9489999999999981</v>
+        <v>1.8994999999999891</v>
       </c>
       <c r="J1" s="3">
         <f>I1*5/3</f>
-        <v>3.24833333333333</v>
+        <v>3.1658333333333153</v>
       </c>
       <c r="L1" s="4">
-        <v>110</v>
+        <v>122.5</v>
       </c>
       <c r="N1" s="5">
         <f>$L$1-($I$4*5)</f>
-        <v>108</v>
+        <v>119.5</v>
       </c>
       <c r="O1" s="5">
         <f>$L$1+($I$4*1)</f>
-        <v>110.4</v>
+        <v>123.1</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -494,31 +494,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C2">
-        <v>123.345</v>
+        <v>122.836</v>
       </c>
       <c r="D2">
-        <v>123.399</v>
+        <v>123.75</v>
       </c>
       <c r="E2">
-        <v>122.08199999999999</v>
+        <v>122.14700000000001</v>
       </c>
       <c r="F2">
-        <v>122.742</v>
+        <v>122.47499999999999</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H52" si="0">ABS(D3-E3)</f>
-        <v>1.8130000000000024</v>
+        <v>1.3170000000000073</v>
       </c>
       <c r="N2" s="5">
         <f>$L$1-($I$4*4)</f>
-        <v>108.4</v>
+        <v>120.1</v>
       </c>
       <c r="O2" s="5">
         <f>$L$1+($I$4*2)</f>
-        <v>110.8</v>
+        <v>123.7</v>
       </c>
       <c r="Q2" s="2"/>
     </row>
@@ -527,39 +527,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C3">
-        <v>123.643</v>
+        <v>123.345</v>
       </c>
       <c r="D3">
-        <v>124.298</v>
+        <v>123.399</v>
       </c>
       <c r="E3">
-        <v>122.485</v>
+        <v>122.08199999999999</v>
       </c>
       <c r="F3">
-        <v>123.56699999999999</v>
+        <v>122.742</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0.95199999999999818</v>
+        <v>1.8130000000000024</v>
       </c>
       <c r="I3">
-        <f>I1/5</f>
-        <v>0.38979999999999959</v>
+        <f>J1/5</f>
+        <v>0.6331666666666631</v>
       </c>
       <c r="J3" s="6">
         <f>(1000*20/J1)</f>
-        <v>6157.0035915854351</v>
+        <v>6317.4519610424159</v>
       </c>
       <c r="N3" s="5">
         <f>$L$1-($I$4*3)</f>
-        <v>108.8</v>
+        <v>120.7</v>
       </c>
       <c r="O3" s="5">
         <f>$L$1+($I$4*3)</f>
-        <v>111.2</v>
+        <v>124.3</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
@@ -568,35 +568,35 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C4">
-        <v>124.43</v>
+        <v>123.643</v>
       </c>
       <c r="D4">
-        <v>125.23</v>
+        <v>124.298</v>
       </c>
       <c r="E4">
-        <v>124.27800000000001</v>
+        <v>122.485</v>
       </c>
       <c r="F4">
-        <v>124.47499999999999</v>
+        <v>123.56699999999999</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.9769999999999897</v>
+        <v>0.95199999999999818</v>
       </c>
       <c r="I4">
         <f>ROUND(I3,1)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="N4" s="5">
         <f>$L$1-($I$4*2)</f>
-        <v>109.2</v>
+        <v>121.3</v>
       </c>
       <c r="O4" s="5">
         <f>$L$1+($I$4*4)</f>
-        <v>111.6</v>
+        <v>124.9</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
@@ -605,31 +605,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C5">
-        <v>125.80500000000001</v>
+        <v>124.43</v>
       </c>
       <c r="D5">
-        <v>126.06699999999999</v>
+        <v>125.23</v>
       </c>
       <c r="E5">
-        <v>124.09</v>
+        <v>124.27800000000001</v>
       </c>
       <c r="F5">
-        <v>124.539</v>
+        <v>124.47499999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.1570000000000107</v>
+        <v>1.9769999999999897</v>
       </c>
       <c r="N5" s="5">
         <f>$L$1-($I$4*1)</f>
-        <v>109.6</v>
+        <v>121.9</v>
       </c>
       <c r="O5" s="5">
         <f>$L$1+($I$4*5)</f>
-        <v>112</v>
+        <v>125.5</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
@@ -638,23 +638,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C6">
-        <v>126.53</v>
+        <v>125.80500000000001</v>
       </c>
       <c r="D6">
-        <v>126.80800000000001</v>
+        <v>126.06699999999999</v>
       </c>
       <c r="E6">
-        <v>125.651</v>
+        <v>124.09</v>
       </c>
       <c r="F6">
-        <v>125.83499999999999</v>
+        <v>124.539</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.9909999999999997</v>
+        <v>1.1570000000000107</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -662,23 +662,23 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C7">
-        <v>125.259</v>
+        <v>126.53</v>
       </c>
       <c r="D7">
-        <v>126.76900000000001</v>
+        <v>126.80800000000001</v>
       </c>
       <c r="E7">
-        <v>124.77800000000001</v>
+        <v>125.651</v>
       </c>
       <c r="F7">
-        <v>126.532</v>
+        <v>125.83499999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.0769999999999982</v>
+        <v>1.9909999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -686,23 +686,23 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C8">
-        <v>124.553</v>
+        <v>125.259</v>
       </c>
       <c r="D8">
-        <v>125.517</v>
+        <v>126.76900000000001</v>
       </c>
       <c r="E8">
-        <v>124.44</v>
+        <v>124.77800000000001</v>
       </c>
       <c r="F8">
-        <v>125.282</v>
+        <v>126.532</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.3579999999999899</v>
+        <v>1.0769999999999982</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -710,23 +710,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C9">
-        <v>124.242</v>
+        <v>124.553</v>
       </c>
       <c r="D9">
-        <v>125.011</v>
+        <v>125.517</v>
       </c>
       <c r="E9">
-        <v>123.65300000000001</v>
+        <v>124.44</v>
       </c>
       <c r="F9">
-        <v>124.286</v>
+        <v>125.282</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>2.9699999999999989</v>
+        <v>1.3579999999999899</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -734,23 +734,23 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C10">
-        <v>126.18899999999999</v>
+        <v>124.242</v>
       </c>
       <c r="D10">
-        <v>126.791</v>
+        <v>125.011</v>
       </c>
       <c r="E10">
-        <v>123.821</v>
+        <v>123.65300000000001</v>
       </c>
       <c r="F10">
-        <v>124.175</v>
+        <v>124.286</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>2.0910000000000082</v>
+        <v>2.9699999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -758,23 +758,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C11">
-        <v>124.82</v>
+        <v>126.18899999999999</v>
       </c>
       <c r="D11">
-        <v>126.572</v>
+        <v>126.791</v>
       </c>
       <c r="E11">
-        <v>124.48099999999999</v>
+        <v>123.821</v>
       </c>
       <c r="F11">
-        <v>126.30500000000001</v>
+        <v>124.175</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>3.1069999999999993</v>
+        <v>2.0910000000000082</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -782,23 +782,23 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C12">
-        <v>127.29300000000001</v>
+        <v>124.82</v>
       </c>
       <c r="D12">
-        <v>127.38200000000001</v>
+        <v>126.572</v>
       </c>
       <c r="E12">
-        <v>124.27500000000001</v>
+        <v>124.48099999999999</v>
       </c>
       <c r="F12">
-        <v>124.875</v>
+        <v>126.30500000000001</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>2.1580000000000013</v>
+        <v>3.1069999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -806,23 +806,23 @@
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C13">
-        <v>125.41200000000001</v>
+        <v>127.29300000000001</v>
       </c>
       <c r="D13">
-        <v>127.5</v>
+        <v>127.38200000000001</v>
       </c>
       <c r="E13">
-        <v>125.342</v>
+        <v>124.27500000000001</v>
       </c>
       <c r="F13">
-        <v>127.21</v>
+        <v>124.875</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.2450000000000045</v>
+        <v>2.1580000000000013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -830,23 +830,23 @@
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C14">
-        <v>124.717</v>
+        <v>125.41200000000001</v>
       </c>
       <c r="D14">
-        <v>125.938</v>
+        <v>127.5</v>
       </c>
       <c r="E14">
-        <v>124.693</v>
+        <v>125.342</v>
       </c>
       <c r="F14">
-        <v>125.376</v>
+        <v>127.21</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.3200000000000074</v>
+        <v>1.2450000000000045</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -854,23 +854,23 @@
         <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C15">
-        <v>124.252</v>
+        <v>124.717</v>
       </c>
       <c r="D15">
-        <v>125.539</v>
+        <v>125.938</v>
       </c>
       <c r="E15">
-        <v>124.21899999999999</v>
+        <v>124.693</v>
       </c>
       <c r="F15">
-        <v>124.688</v>
+        <v>125.376</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.7740000000000009</v>
+        <v>1.3200000000000074</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -878,23 +878,23 @@
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C16">
-        <v>125.39400000000001</v>
+        <v>124.252</v>
       </c>
       <c r="D16">
-        <v>125.947</v>
+        <v>125.539</v>
       </c>
       <c r="E16">
-        <v>124.173</v>
+        <v>124.21899999999999</v>
       </c>
       <c r="F16">
-        <v>124.264</v>
+        <v>124.688</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.3719999999999999</v>
+        <v>1.7740000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -902,23 +902,23 @@
         <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C17">
-        <v>124.875</v>
+        <v>125.39400000000001</v>
       </c>
       <c r="D17">
-        <v>125.735</v>
+        <v>125.947</v>
       </c>
       <c r="E17">
-        <v>124.363</v>
+        <v>124.173</v>
       </c>
       <c r="F17">
-        <v>125.438</v>
+        <v>124.264</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.5269999999999868</v>
+        <v>1.3719999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -926,23 +926,23 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C18">
-        <v>124.592</v>
+        <v>124.875</v>
       </c>
       <c r="D18">
-        <v>125.31699999999999</v>
+        <v>125.735</v>
       </c>
       <c r="E18">
-        <v>123.79</v>
+        <v>124.363</v>
       </c>
       <c r="F18">
-        <v>124.944</v>
+        <v>125.438</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.5750000000000028</v>
+        <v>1.5269999999999868</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -950,23 +950,23 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C19">
-        <v>124.36199999999999</v>
+        <v>124.592</v>
       </c>
       <c r="D19">
-        <v>124.973</v>
+        <v>125.31699999999999</v>
       </c>
       <c r="E19">
-        <v>123.398</v>
+        <v>123.79</v>
       </c>
       <c r="F19">
-        <v>124.727</v>
+        <v>124.944</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.6890000000000072</v>
+        <v>1.5750000000000028</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -974,23 +974,23 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C20">
-        <v>123.637</v>
+        <v>124.36199999999999</v>
       </c>
       <c r="D20">
-        <v>125.096</v>
+        <v>124.973</v>
       </c>
       <c r="E20">
-        <v>123.407</v>
+        <v>123.398</v>
       </c>
       <c r="F20">
-        <v>124.42700000000001</v>
+        <v>124.727</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>5.938999999999993</v>
+        <v>1.6890000000000072</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -998,23 +998,23 @@
         <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C21">
-        <v>126.143</v>
+        <v>123.637</v>
       </c>
       <c r="D21">
-        <v>126.44</v>
+        <v>125.096</v>
       </c>
       <c r="E21">
-        <v>120.501</v>
+        <v>123.407</v>
       </c>
       <c r="F21">
-        <v>123.627</v>
+        <v>124.42700000000001</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.5450000000000017</v>
+        <v>5.938999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1022,23 +1022,23 @@
         <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C22">
-        <v>126.113</v>
+        <v>126.143</v>
       </c>
       <c r="D22">
-        <v>127.087</v>
+        <v>126.44</v>
       </c>
       <c r="E22">
-        <v>125.542</v>
+        <v>120.501</v>
       </c>
       <c r="F22">
-        <v>126.21599999999999</v>
+        <v>123.627</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>2.2129999999999939</v>
+        <v>1.5450000000000017</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1046,23 +1046,23 @@
         <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C23">
-        <v>128.13200000000001</v>
+        <v>126.113</v>
       </c>
       <c r="D23">
-        <v>128.59399999999999</v>
+        <v>127.087</v>
       </c>
       <c r="E23">
-        <v>126.381</v>
+        <v>125.542</v>
       </c>
       <c r="F23">
-        <v>126.39</v>
+        <v>126.21599999999999</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.269999999999996</v>
+        <v>2.2129999999999939</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1070,23 +1070,23 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C24">
-        <v>128.28299999999999</v>
+        <v>128.13200000000001</v>
       </c>
       <c r="D24">
-        <v>129.25399999999999</v>
+        <v>128.59399999999999</v>
       </c>
       <c r="E24">
-        <v>127.98399999999999</v>
+        <v>126.381</v>
       </c>
       <c r="F24">
-        <v>128.17500000000001</v>
+        <v>126.39</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1.5320000000000107</v>
+        <v>1.269999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,23 +1094,23 @@
         <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C25">
-        <v>128.988</v>
+        <v>128.28299999999999</v>
       </c>
       <c r="D25">
-        <v>129.15</v>
+        <v>129.25399999999999</v>
       </c>
       <c r="E25">
-        <v>127.61799999999999</v>
+        <v>127.98399999999999</v>
       </c>
       <c r="F25">
-        <v>128.52099999999999</v>
+        <v>128.17500000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1.3439999999999799</v>
+        <v>1.5320000000000107</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1118,23 +1118,23 @@
         <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C26">
-        <v>128.024</v>
+        <v>128.988</v>
       </c>
       <c r="D26">
-        <v>129.27099999999999</v>
+        <v>129.15</v>
       </c>
       <c r="E26">
-        <v>127.92700000000001</v>
+        <v>127.61799999999999</v>
       </c>
       <c r="F26">
-        <v>128.476</v>
+        <v>128.52099999999999</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1.2800000000000011</v>
+        <v>1.3439999999999799</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1142,23 +1142,23 @@
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C27">
-        <v>128.715</v>
+        <v>128.024</v>
       </c>
       <c r="D27">
-        <v>129.1</v>
+        <v>129.27099999999999</v>
       </c>
       <c r="E27">
-        <v>127.82</v>
+        <v>127.92700000000001</v>
       </c>
       <c r="F27">
-        <v>127.938</v>
+        <v>128.476</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.7319999999999851</v>
+        <v>1.2800000000000011</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1166,23 +1166,23 @@
         <v>2</v>
       </c>
       <c r="B28" s="1">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C28">
-        <v>128.82499999999999</v>
+        <v>128.715</v>
       </c>
       <c r="D28">
-        <v>129.22999999999999</v>
+        <v>129.1</v>
       </c>
       <c r="E28">
-        <v>127.498</v>
+        <v>127.82</v>
       </c>
       <c r="F28">
-        <v>128.83199999999999</v>
+        <v>127.938</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.5519999999999925</v>
+        <v>1.7319999999999851</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1190,23 +1190,23 @@
         <v>2</v>
       </c>
       <c r="B29" s="1">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C29">
-        <v>128.834</v>
+        <v>128.82499999999999</v>
       </c>
       <c r="D29">
-        <v>130.149</v>
+        <v>129.22999999999999</v>
       </c>
       <c r="E29">
-        <v>128.59700000000001</v>
+        <v>127.498</v>
       </c>
       <c r="F29">
-        <v>129.00299999999999</v>
+        <v>128.83199999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>2.0789999999999935</v>
+        <v>1.5519999999999925</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1214,23 +1214,23 @@
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C30">
-        <v>127.527</v>
+        <v>128.834</v>
       </c>
       <c r="D30">
-        <v>129.32599999999999</v>
+        <v>130.149</v>
       </c>
       <c r="E30">
-        <v>127.247</v>
+        <v>128.59700000000001</v>
       </c>
       <c r="F30">
-        <v>128.953</v>
+        <v>129.00299999999999</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>3.5690000000000026</v>
+        <v>2.0789999999999935</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1238,23 +1238,23 @@
         <v>2</v>
       </c>
       <c r="B31" s="1">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C31">
-        <v>129.56299999999999</v>
+        <v>127.527</v>
       </c>
       <c r="D31">
-        <v>130.202</v>
+        <v>129.32599999999999</v>
       </c>
       <c r="E31">
-        <v>126.633</v>
+        <v>127.247</v>
       </c>
       <c r="F31">
-        <v>127.57299999999999</v>
+        <v>128.953</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.9720000000000084</v>
+        <v>3.5690000000000026</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1262,23 +1262,23 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C32">
-        <v>129.54499999999999</v>
+        <v>129.56299999999999</v>
       </c>
       <c r="D32">
-        <v>130.29400000000001</v>
+        <v>130.202</v>
       </c>
       <c r="E32">
-        <v>128.322</v>
+        <v>126.633</v>
       </c>
       <c r="F32">
-        <v>129.57499999999999</v>
+        <v>127.57299999999999</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>2.054000000000002</v>
+        <v>1.9720000000000084</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1286,23 +1286,23 @@
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C33">
-        <v>131.05099999999999</v>
+        <v>129.54499999999999</v>
       </c>
       <c r="D33">
-        <v>131.24799999999999</v>
+        <v>130.29400000000001</v>
       </c>
       <c r="E33">
-        <v>129.19399999999999</v>
+        <v>128.322</v>
       </c>
       <c r="F33">
-        <v>129.68100000000001</v>
+        <v>129.57499999999999</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.86099999999999</v>
+        <v>2.054000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1310,23 +1310,23 @@
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C34">
-        <v>132.02000000000001</v>
+        <v>131.05099999999999</v>
       </c>
       <c r="D34">
-        <v>132.46199999999999</v>
+        <v>131.24799999999999</v>
       </c>
       <c r="E34">
-        <v>130.601</v>
+        <v>129.19399999999999</v>
       </c>
       <c r="F34">
-        <v>130.976</v>
+        <v>129.68100000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.9379999999999882</v>
+        <v>1.86099999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1334,23 +1334,23 @@
         <v>2</v>
       </c>
       <c r="B35" s="1">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C35">
-        <v>132.137</v>
+        <v>132.02000000000001</v>
       </c>
       <c r="D35">
-        <v>133.11799999999999</v>
+        <v>132.46199999999999</v>
       </c>
       <c r="E35">
-        <v>131.18</v>
+        <v>130.601</v>
       </c>
       <c r="F35">
-        <v>131.90299999999999</v>
+        <v>130.976</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>3.0369999999999777</v>
+        <v>1.9379999999999882</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1358,23 +1358,23 @@
         <v>2</v>
       </c>
       <c r="B36" s="1">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C36">
-        <v>130.215</v>
+        <v>132.137</v>
       </c>
       <c r="D36">
-        <v>133.13499999999999</v>
+        <v>133.11799999999999</v>
       </c>
       <c r="E36">
-        <v>130.09800000000001</v>
+        <v>131.18</v>
       </c>
       <c r="F36">
-        <v>132.34399999999999</v>
+        <v>131.90299999999999</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>3.0369999999999777</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1382,23 +1382,23 @@
         <v>2</v>
       </c>
       <c r="B37" s="1">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C37">
-        <v>128.22900000000001</v>
+        <v>130.215</v>
       </c>
       <c r="D37">
-        <v>131.113</v>
+        <v>133.13499999999999</v>
       </c>
       <c r="E37">
-        <v>127.863</v>
+        <v>130.09800000000001</v>
       </c>
       <c r="F37">
-        <v>130.18299999999999</v>
+        <v>132.34399999999999</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.9650000000000034</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,23 +1406,23 @@
         <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C38">
-        <v>128.809</v>
+        <v>128.22900000000001</v>
       </c>
       <c r="D38">
-        <v>129.982</v>
+        <v>131.113</v>
       </c>
       <c r="E38">
-        <v>128.017</v>
+        <v>127.863</v>
       </c>
       <c r="F38">
-        <v>128.27099999999999</v>
+        <v>130.18299999999999</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>2.3100000000000023</v>
+        <v>1.9650000000000034</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1430,23 +1430,23 @@
         <v>2</v>
       </c>
       <c r="B39" s="1">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C39">
-        <v>129.35</v>
+        <v>128.809</v>
       </c>
       <c r="D39">
-        <v>130.86500000000001</v>
+        <v>129.982</v>
       </c>
       <c r="E39">
-        <v>128.55500000000001</v>
+        <v>128.017</v>
       </c>
       <c r="F39">
-        <v>128.964</v>
+        <v>128.27099999999999</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>3.3450000000000131</v>
+        <v>2.3100000000000023</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1454,23 +1454,23 @@
         <v>2</v>
       </c>
       <c r="B40" s="1">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C40">
-        <v>126.386</v>
+        <v>129.35</v>
       </c>
       <c r="D40">
-        <v>129.41900000000001</v>
+        <v>130.86500000000001</v>
       </c>
       <c r="E40">
-        <v>126.074</v>
+        <v>128.55500000000001</v>
       </c>
       <c r="F40">
-        <v>129.27699999999999</v>
+        <v>128.964</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>2.0900000000000034</v>
+        <v>3.3450000000000131</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1478,23 +1478,23 @@
         <v>2</v>
       </c>
       <c r="B41" s="1">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C41">
-        <v>125.795</v>
+        <v>126.386</v>
       </c>
       <c r="D41">
-        <v>126.991</v>
+        <v>129.41900000000001</v>
       </c>
       <c r="E41">
-        <v>124.901</v>
+        <v>126.074</v>
       </c>
       <c r="F41">
-        <v>126.437</v>
+        <v>129.27699999999999</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>3.4470000000000169</v>
+        <v>2.0900000000000034</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1502,23 +1502,23 @@
         <v>2</v>
       </c>
       <c r="B42" s="1">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C42">
-        <v>128.63499999999999</v>
+        <v>125.795</v>
       </c>
       <c r="D42">
-        <v>129.45500000000001</v>
+        <v>126.991</v>
       </c>
       <c r="E42">
-        <v>126.008</v>
+        <v>124.901</v>
       </c>
       <c r="F42">
-        <v>126.53</v>
+        <v>126.437</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.4749999999999943</v>
+        <v>3.4470000000000169</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1526,23 +1526,23 @@
         <v>2</v>
       </c>
       <c r="B43" s="1">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C43">
-        <v>129.34</v>
+        <v>128.63499999999999</v>
       </c>
       <c r="D43">
-        <v>131.15</v>
+        <v>129.45500000000001</v>
       </c>
       <c r="E43">
-        <v>128.67500000000001</v>
+        <v>126.008</v>
       </c>
       <c r="F43">
-        <v>128.684</v>
+        <v>126.53</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.6069999999999993</v>
+        <v>2.4749999999999943</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1550,23 +1550,23 @@
         <v>2</v>
       </c>
       <c r="B44" s="1">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C44">
-        <v>130.58000000000001</v>
+        <v>129.34</v>
       </c>
       <c r="D44">
-        <v>130.73400000000001</v>
+        <v>131.15</v>
       </c>
       <c r="E44">
-        <v>129.12700000000001</v>
+        <v>128.67500000000001</v>
       </c>
       <c r="F44">
-        <v>129.42099999999999</v>
+        <v>128.684</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.3879999999999768</v>
+        <v>1.6069999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1574,23 +1574,23 @@
         <v>2</v>
       </c>
       <c r="B45" s="1">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C45">
-        <v>131.22800000000001</v>
+        <v>130.58000000000001</v>
       </c>
       <c r="D45">
-        <v>131.98599999999999</v>
+        <v>130.73400000000001</v>
       </c>
       <c r="E45">
-        <v>130.59800000000001</v>
+        <v>129.12700000000001</v>
       </c>
       <c r="F45">
-        <v>130.63200000000001</v>
+        <v>129.42099999999999</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.8529999999999802</v>
+        <v>1.3879999999999768</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1598,23 +1598,23 @@
         <v>2</v>
       </c>
       <c r="B46" s="1">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C46">
-        <v>129.702</v>
+        <v>131.22800000000001</v>
       </c>
       <c r="D46">
-        <v>131.53299999999999</v>
+        <v>131.98599999999999</v>
       </c>
       <c r="E46">
-        <v>129.68</v>
+        <v>130.59800000000001</v>
       </c>
       <c r="F46">
-        <v>131.261</v>
+        <v>130.63200000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.5470000000000255</v>
+        <v>1.8529999999999802</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1622,23 +1622,23 @@
         <v>2</v>
       </c>
       <c r="B47" s="1">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C47">
-        <v>129.09</v>
+        <v>129.702</v>
       </c>
       <c r="D47">
-        <v>129.96700000000001</v>
+        <v>131.53299999999999</v>
       </c>
       <c r="E47">
-        <v>128.41999999999999</v>
+        <v>129.68</v>
       </c>
       <c r="F47">
-        <v>129.63900000000001</v>
+        <v>131.261</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>2.3210000000000122</v>
+        <v>1.5470000000000255</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1646,23 +1646,23 @@
         <v>2</v>
       </c>
       <c r="B48" s="1">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C48">
-        <v>128.19499999999999</v>
+        <v>129.09</v>
       </c>
       <c r="D48">
-        <v>129.46700000000001</v>
+        <v>129.96700000000001</v>
       </c>
       <c r="E48">
-        <v>127.146</v>
+        <v>128.41999999999999</v>
       </c>
       <c r="F48">
-        <v>129.32400000000001</v>
+        <v>129.63900000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.960000000000008</v>
+        <v>2.3210000000000122</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1670,23 +1670,23 @@
         <v>2</v>
       </c>
       <c r="B49" s="1">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C49">
-        <v>128.31299999999999</v>
+        <v>128.19499999999999</v>
       </c>
       <c r="D49">
-        <v>128.602</v>
+        <v>129.46700000000001</v>
       </c>
       <c r="E49">
-        <v>126.642</v>
+        <v>127.146</v>
       </c>
       <c r="F49">
-        <v>128.215</v>
+        <v>129.32400000000001</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>2.6470000000000198</v>
+        <v>1.960000000000008</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1694,23 +1694,23 @@
         <v>2</v>
       </c>
       <c r="B50" s="1">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C50">
-        <v>128.70599999999999</v>
+        <v>128.31299999999999</v>
       </c>
       <c r="D50">
-        <v>130.34800000000001</v>
+        <v>128.602</v>
       </c>
       <c r="E50">
-        <v>127.70099999999999</v>
+        <v>126.642</v>
       </c>
       <c r="F50">
-        <v>128.429</v>
+        <v>128.215</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>2.6210000000000093</v>
+        <v>2.6470000000000198</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,23 +1718,23 @@
         <v>2</v>
       </c>
       <c r="B51" s="1">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C51">
-        <v>127.655</v>
+        <v>128.70599999999999</v>
       </c>
       <c r="D51">
-        <v>130.27600000000001</v>
+        <v>130.34800000000001</v>
       </c>
       <c r="E51">
-        <v>127.655</v>
+        <v>127.70099999999999</v>
       </c>
       <c r="F51">
-        <v>128.80799999999999</v>
+        <v>128.429</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>3.9159999999999968</v>
+        <v>2.6210000000000093</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1742,23 +1742,23 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C52">
-        <v>128.31899999999999</v>
+        <v>127.655</v>
       </c>
       <c r="D52">
-        <v>128.536</v>
+        <v>130.27600000000001</v>
       </c>
       <c r="E52">
-        <v>124.62</v>
+        <v>127.655</v>
       </c>
       <c r="F52">
-        <v>127.73099999999999</v>
+        <v>128.80799999999999</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>4.1979999999999933</v>
+        <v>3.9159999999999968</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1766,19 +1766,19 @@
         <v>2</v>
       </c>
       <c r="B53" s="1">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C53">
-        <v>130.46899999999999</v>
+        <v>128.31899999999999</v>
       </c>
       <c r="D53">
-        <v>131.35</v>
+        <v>128.536</v>
       </c>
       <c r="E53">
-        <v>127.152</v>
+        <v>124.62</v>
       </c>
       <c r="F53">
-        <v>127.706</v>
+        <v>127.73099999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1786,19 +1786,19 @@
         <v>2</v>
       </c>
       <c r="B54" s="1">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C54">
-        <v>130.58600000000001</v>
+        <v>130.46899999999999</v>
       </c>
       <c r="D54">
-        <v>131.37700000000001</v>
+        <v>131.35</v>
       </c>
       <c r="E54">
-        <v>129.53</v>
+        <v>127.152</v>
       </c>
       <c r="F54">
-        <v>130.27699999999999</v>
+        <v>127.706</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1806,19 +1806,19 @@
         <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C55">
-        <v>130.43199999999999</v>
+        <v>130.58600000000001</v>
       </c>
       <c r="D55">
-        <v>130.76499999999999</v>
+        <v>131.37700000000001</v>
       </c>
       <c r="E55">
-        <v>129.23099999999999</v>
+        <v>129.53</v>
       </c>
       <c r="F55">
-        <v>130.53899999999999</v>
+        <v>130.27699999999999</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1826,19 +1826,19 @@
         <v>2</v>
       </c>
       <c r="B56" s="1">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C56">
-        <v>132.26</v>
+        <v>130.43199999999999</v>
       </c>
       <c r="D56">
-        <v>132.54300000000001</v>
+        <v>130.76499999999999</v>
       </c>
       <c r="E56">
-        <v>129.89099999999999</v>
+        <v>129.23099999999999</v>
       </c>
       <c r="F56">
-        <v>130.464</v>
+        <v>130.53899999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1846,19 +1846,19 @@
         <v>2</v>
       </c>
       <c r="B57" s="1">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C57">
-        <v>132.34200000000001</v>
+        <v>132.26</v>
       </c>
       <c r="D57">
-        <v>133.48699999999999</v>
+        <v>132.54300000000001</v>
       </c>
       <c r="E57">
-        <v>131.88499999999999</v>
+        <v>129.89099999999999</v>
       </c>
       <c r="F57">
-        <v>132.327</v>
+        <v>130.464</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1866,19 +1866,19 @@
         <v>2</v>
       </c>
       <c r="B58" s="1">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C58">
-        <v>132.517</v>
+        <v>132.34200000000001</v>
       </c>
       <c r="D58">
-        <v>133.09200000000001</v>
+        <v>133.48699999999999</v>
       </c>
       <c r="E58">
-        <v>132.042</v>
+        <v>131.88499999999999</v>
       </c>
       <c r="F58">
-        <v>132.22200000000001</v>
+        <v>132.327</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1886,19 +1886,19 @@
         <v>2</v>
       </c>
       <c r="B59" s="1">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C59">
-        <v>131.24299999999999</v>
+        <v>132.517</v>
       </c>
       <c r="D59">
-        <v>132.89699999999999</v>
+        <v>133.09200000000001</v>
       </c>
       <c r="E59">
-        <v>131.107</v>
+        <v>132.042</v>
       </c>
       <c r="F59">
-        <v>132.44900000000001</v>
+        <v>132.22200000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1906,19 +1906,19 @@
         <v>2</v>
       </c>
       <c r="B60" s="1">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C60">
-        <v>130.92500000000001</v>
+        <v>131.24299999999999</v>
       </c>
       <c r="D60">
-        <v>131.61799999999999</v>
+        <v>132.89699999999999</v>
       </c>
       <c r="E60">
-        <v>129.983</v>
+        <v>131.107</v>
       </c>
       <c r="F60">
-        <v>131.328</v>
+        <v>132.44900000000001</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1926,19 +1926,19 @@
         <v>2</v>
       </c>
       <c r="B61" s="1">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C61">
-        <v>129.32499999999999</v>
+        <v>130.92500000000001</v>
       </c>
       <c r="D61">
-        <v>131.80799999999999</v>
+        <v>131.61799999999999</v>
       </c>
       <c r="E61">
-        <v>129.32300000000001</v>
+        <v>129.983</v>
       </c>
       <c r="F61">
-        <v>131</v>
+        <v>131.328</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1946,19 +1946,19 @@
         <v>2</v>
       </c>
       <c r="B62" s="1">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C62">
-        <v>130.29499999999999</v>
+        <v>129.32499999999999</v>
       </c>
       <c r="D62">
-        <v>131.71199999999999</v>
+        <v>131.80799999999999</v>
       </c>
       <c r="E62">
-        <v>128.93899999999999</v>
+        <v>129.32300000000001</v>
       </c>
       <c r="F62">
-        <v>129.49100000000001</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -1966,19 +1966,19 @@
         <v>2</v>
       </c>
       <c r="B63" s="1">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C63">
-        <v>131.44399999999999</v>
+        <v>130.29499999999999</v>
       </c>
       <c r="D63">
-        <v>132.42699999999999</v>
+        <v>131.71199999999999</v>
       </c>
       <c r="E63">
-        <v>130.06899999999999</v>
+        <v>128.93899999999999</v>
       </c>
       <c r="F63">
-        <v>130.28700000000001</v>
+        <v>129.49100000000001</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -1986,19 +1986,19 @@
         <v>2</v>
       </c>
       <c r="B64" s="1">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C64">
-        <v>130.077</v>
+        <v>131.44399999999999</v>
       </c>
       <c r="D64">
-        <v>132.011</v>
+        <v>132.42699999999999</v>
       </c>
       <c r="E64">
-        <v>129.34299999999999</v>
+        <v>130.06899999999999</v>
       </c>
       <c r="F64">
-        <v>131.441</v>
+        <v>130.28700000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2006,19 +2006,19 @@
         <v>2</v>
       </c>
       <c r="B65" s="1">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C65">
-        <v>131.77099999999999</v>
+        <v>130.077</v>
       </c>
       <c r="D65">
-        <v>132.18199999999999</v>
+        <v>132.011</v>
       </c>
       <c r="E65">
-        <v>129.55500000000001</v>
+        <v>129.34299999999999</v>
       </c>
       <c r="F65">
-        <v>130.30099999999999</v>
+        <v>131.441</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2026,19 +2026,19 @@
         <v>2</v>
       </c>
       <c r="B66" s="1">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C66">
-        <v>131.83600000000001</v>
+        <v>131.77099999999999</v>
       </c>
       <c r="D66">
-        <v>133.05000000000001</v>
+        <v>132.18199999999999</v>
       </c>
       <c r="E66">
-        <v>130.92599999999999</v>
+        <v>129.55500000000001</v>
       </c>
       <c r="F66">
-        <v>131.31800000000001</v>
+        <v>130.30099999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2046,19 +2046,19 @@
         <v>2</v>
       </c>
       <c r="B67" s="1">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C67">
-        <v>133.328</v>
+        <v>131.83600000000001</v>
       </c>
       <c r="D67">
-        <v>133.78399999999999</v>
+        <v>133.05000000000001</v>
       </c>
       <c r="E67">
-        <v>131.59899999999999</v>
+        <v>130.92599999999999</v>
       </c>
       <c r="F67">
-        <v>131.857</v>
+        <v>131.31800000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2066,19 +2066,19 @@
         <v>2</v>
       </c>
       <c r="B68" s="1">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C68">
-        <v>136.99700000000001</v>
+        <v>133.328</v>
       </c>
       <c r="D68">
-        <v>137.18</v>
+        <v>133.78399999999999</v>
       </c>
       <c r="E68">
-        <v>131.977</v>
+        <v>131.59899999999999</v>
       </c>
       <c r="F68">
-        <v>133.20500000000001</v>
+        <v>131.857</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2086,19 +2086,19 @@
         <v>2</v>
       </c>
       <c r="B69" s="1">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C69">
-        <v>135.06700000000001</v>
+        <v>136.99700000000001</v>
       </c>
       <c r="D69">
-        <v>137.49600000000001</v>
+        <v>137.18</v>
       </c>
       <c r="E69">
-        <v>134.12100000000001</v>
+        <v>131.977</v>
       </c>
       <c r="F69">
-        <v>137.22399999999999</v>
+        <v>133.20500000000001</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2106,19 +2106,19 @@
         <v>2</v>
       </c>
       <c r="B70" s="1">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C70">
-        <v>135.66200000000001</v>
+        <v>135.06700000000001</v>
       </c>
       <c r="D70">
-        <v>136.285</v>
+        <v>137.49600000000001</v>
       </c>
       <c r="E70">
-        <v>134.53399999999999</v>
+        <v>134.12100000000001</v>
       </c>
       <c r="F70">
-        <v>135.00299999999999</v>
+        <v>137.22399999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2126,19 +2126,19 @@
         <v>2</v>
       </c>
       <c r="B71" s="1">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C71">
-        <v>135.43899999999999</v>
+        <v>135.66200000000001</v>
       </c>
       <c r="D71">
-        <v>136.30199999999999</v>
+        <v>136.285</v>
       </c>
       <c r="E71">
-        <v>134.97200000000001</v>
+        <v>134.53399999999999</v>
       </c>
       <c r="F71">
-        <v>135.48099999999999</v>
+        <v>135.00299999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2146,19 +2146,19 @@
         <v>2</v>
       </c>
       <c r="B72" s="1">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C72">
-        <v>136.08699999999999</v>
+        <v>135.43899999999999</v>
       </c>
       <c r="D72">
-        <v>136.315</v>
+        <v>136.30199999999999</v>
       </c>
       <c r="E72">
-        <v>133.02799999999999</v>
+        <v>134.97200000000001</v>
       </c>
       <c r="F72">
-        <v>135.31899999999999</v>
+        <v>135.48099999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2166,19 +2166,19 @@
         <v>2</v>
       </c>
       <c r="B73" s="1">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C73">
-        <v>135.25899999999999</v>
+        <v>136.08699999999999</v>
       </c>
       <c r="D73">
-        <v>136.62899999999999</v>
+        <v>136.315</v>
       </c>
       <c r="E73">
-        <v>134.79499999999999</v>
+        <v>133.02799999999999</v>
       </c>
       <c r="F73">
-        <v>136.06700000000001</v>
+        <v>135.31899999999999</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2186,19 +2186,19 @@
         <v>2</v>
       </c>
       <c r="B74" s="1">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C74">
-        <v>134.16999999999999</v>
+        <v>135.25899999999999</v>
       </c>
       <c r="D74">
-        <v>135.50700000000001</v>
+        <v>136.62899999999999</v>
       </c>
       <c r="E74">
-        <v>134.16</v>
+        <v>134.79499999999999</v>
       </c>
       <c r="F74">
-        <v>135.209</v>
+        <v>136.06700000000001</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2206,19 +2206,19 @@
         <v>2</v>
       </c>
       <c r="B75" s="1">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C75">
-        <v>132.37100000000001</v>
+        <v>134.16999999999999</v>
       </c>
       <c r="D75">
-        <v>134.87299999999999</v>
+        <v>135.50700000000001</v>
       </c>
       <c r="E75">
-        <v>132.148</v>
+        <v>134.16</v>
       </c>
       <c r="F75">
-        <v>134.364</v>
+        <v>135.209</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2226,19 +2226,19 @@
         <v>2</v>
       </c>
       <c r="B76" s="1">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C76">
-        <v>133.547</v>
+        <v>132.37100000000001</v>
       </c>
       <c r="D76">
-        <v>133.876</v>
+        <v>134.87299999999999</v>
       </c>
       <c r="E76">
-        <v>132.04499999999999</v>
+        <v>132.148</v>
       </c>
       <c r="F76">
-        <v>132.387</v>
+        <v>134.364</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2246,19 +2246,19 @@
         <v>2</v>
       </c>
       <c r="B77" s="1">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C77">
-        <v>133.798</v>
+        <v>133.547</v>
       </c>
       <c r="D77">
-        <v>134.042</v>
+        <v>133.876</v>
       </c>
       <c r="E77">
-        <v>132.25299999999999</v>
+        <v>132.04499999999999</v>
       </c>
       <c r="F77">
-        <v>133.56</v>
+        <v>132.387</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2266,19 +2266,19 @@
         <v>2</v>
       </c>
       <c r="B78" s="1">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C78">
-        <v>132.98099999999999</v>
+        <v>133.798</v>
       </c>
       <c r="D78">
-        <v>134.37200000000001</v>
+        <v>134.042</v>
       </c>
       <c r="E78">
-        <v>131.715</v>
+        <v>132.25299999999999</v>
       </c>
       <c r="F78">
-        <v>133.44900000000001</v>
+        <v>133.56</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2286,19 +2286,19 @@
         <v>2</v>
       </c>
       <c r="B79" s="1">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C79">
-        <v>132.16</v>
+        <v>132.98099999999999</v>
       </c>
       <c r="D79">
-        <v>133.22800000000001</v>
+        <v>134.37200000000001</v>
       </c>
       <c r="E79">
-        <v>131.16399999999999</v>
+        <v>131.715</v>
       </c>
       <c r="F79">
-        <v>133.15100000000001</v>
+        <v>133.44900000000001</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2306,19 +2306,19 @@
         <v>2</v>
       </c>
       <c r="B80" s="1">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C80">
-        <v>132.29400000000001</v>
+        <v>132.16</v>
       </c>
       <c r="D80">
-        <v>133.87899999999999</v>
+        <v>133.22800000000001</v>
       </c>
       <c r="E80">
-        <v>131.922</v>
+        <v>131.16399999999999</v>
       </c>
       <c r="F80">
-        <v>132.16999999999999</v>
+        <v>133.15100000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2326,19 +2326,19 @@
         <v>2</v>
       </c>
       <c r="B81" s="1">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C81">
-        <v>132.41300000000001</v>
+        <v>132.29400000000001</v>
       </c>
       <c r="D81">
-        <v>133.11199999999999</v>
+        <v>133.87899999999999</v>
       </c>
       <c r="E81">
-        <v>131.38999999999999</v>
+        <v>131.922</v>
       </c>
       <c r="F81">
-        <v>132.404</v>
+        <v>132.16999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2346,19 +2346,19 @@
         <v>2</v>
       </c>
       <c r="B82" s="1">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C82">
-        <v>131.95699999999999</v>
+        <v>132.41300000000001</v>
       </c>
       <c r="D82">
-        <v>133.14099999999999</v>
+        <v>133.11199999999999</v>
       </c>
       <c r="E82">
-        <v>131.447</v>
+        <v>131.38999999999999</v>
       </c>
       <c r="F82">
-        <v>132.42500000000001</v>
+        <v>132.404</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2366,19 +2366,19 @@
         <v>2</v>
       </c>
       <c r="B83" s="1">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C83">
-        <v>134.011</v>
+        <v>131.95699999999999</v>
       </c>
       <c r="D83">
-        <v>134.49199999999999</v>
+        <v>133.14099999999999</v>
       </c>
       <c r="E83">
-        <v>131.74799999999999</v>
+        <v>131.447</v>
       </c>
       <c r="F83">
-        <v>131.947</v>
+        <v>132.42500000000001</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2386,19 +2386,19 @@
         <v>2</v>
       </c>
       <c r="B84" s="1">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C84">
-        <v>132.12899999999999</v>
+        <v>134.011</v>
       </c>
       <c r="D84">
-        <v>133.95500000000001</v>
+        <v>134.49199999999999</v>
       </c>
       <c r="E84">
-        <v>131.661</v>
+        <v>131.74799999999999</v>
       </c>
       <c r="F84">
-        <v>133.672</v>
+        <v>131.947</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2406,19 +2406,19 @@
         <v>2</v>
       </c>
       <c r="B85" s="1">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C85">
-        <v>132.21700000000001</v>
+        <v>132.12899999999999</v>
       </c>
       <c r="D85">
-        <v>133.48400000000001</v>
+        <v>133.95500000000001</v>
       </c>
       <c r="E85">
-        <v>131.84</v>
+        <v>131.661</v>
       </c>
       <c r="F85">
-        <v>132.25899999999999</v>
+        <v>133.672</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2426,19 +2426,19 @@
         <v>2</v>
       </c>
       <c r="B86" s="1">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C86">
-        <v>132.809</v>
+        <v>132.21700000000001</v>
       </c>
       <c r="D86">
-        <v>133.066</v>
+        <v>133.48400000000001</v>
       </c>
       <c r="E86">
-        <v>131.833</v>
+        <v>131.84</v>
       </c>
       <c r="F86">
-        <v>132.16200000000001</v>
+        <v>132.25899999999999</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2446,19 +2446,19 @@
         <v>2</v>
       </c>
       <c r="B87" s="1">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C87">
-        <v>133.63200000000001</v>
+        <v>132.809</v>
       </c>
       <c r="D87">
-        <v>134.23599999999999</v>
+        <v>133.066</v>
       </c>
       <c r="E87">
-        <v>131.74100000000001</v>
+        <v>131.833</v>
       </c>
       <c r="F87">
-        <v>132.99199999999999</v>
+        <v>132.16200000000001</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2466,19 +2466,19 @@
         <v>2</v>
       </c>
       <c r="B88" s="1">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C88">
-        <v>132.59899999999999</v>
+        <v>133.63200000000001</v>
       </c>
       <c r="D88">
-        <v>134.398</v>
+        <v>134.23599999999999</v>
       </c>
       <c r="E88">
-        <v>132.52500000000001</v>
+        <v>131.74100000000001</v>
       </c>
       <c r="F88">
-        <v>133.785</v>
+        <v>132.99199999999999</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2486,19 +2486,19 @@
         <v>2</v>
       </c>
       <c r="B89" s="1">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C89">
-        <v>130.102</v>
+        <v>132.59899999999999</v>
       </c>
       <c r="D89">
-        <v>133.08500000000001</v>
+        <v>134.398</v>
       </c>
       <c r="E89">
-        <v>129.97800000000001</v>
+        <v>132.52500000000001</v>
       </c>
       <c r="F89">
-        <v>132.518</v>
+        <v>133.785</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2506,19 +2506,19 @@
         <v>2</v>
       </c>
       <c r="B90" s="1">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C90">
-        <v>130.21700000000001</v>
+        <v>130.102</v>
       </c>
       <c r="D90">
-        <v>131.089</v>
+        <v>133.08500000000001</v>
       </c>
       <c r="E90">
-        <v>129.364</v>
+        <v>129.97800000000001</v>
       </c>
       <c r="F90">
-        <v>129.73599999999999</v>
+        <v>132.518</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2526,19 +2526,19 @@
         <v>2</v>
       </c>
       <c r="B91" s="1">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C91">
-        <v>130.45599999999999</v>
+        <v>130.21700000000001</v>
       </c>
       <c r="D91">
-        <v>131.69499999999999</v>
+        <v>131.089</v>
       </c>
       <c r="E91">
-        <v>129.64599999999999</v>
+        <v>129.364</v>
       </c>
       <c r="F91">
-        <v>130.78299999999999</v>
+        <v>129.73599999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2546,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="B92" s="1">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C92">
-        <v>128.46</v>
+        <v>130.45599999999999</v>
       </c>
       <c r="D92">
-        <v>130.42599999999999</v>
+        <v>131.69499999999999</v>
       </c>
       <c r="E92">
-        <v>127.827</v>
+        <v>129.64599999999999</v>
       </c>
       <c r="F92">
-        <v>130.38399999999999</v>
+        <v>130.78299999999999</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2566,19 +2566,19 @@
         <v>2</v>
       </c>
       <c r="B93" s="1">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C93">
-        <v>128.964</v>
+        <v>128.46</v>
       </c>
       <c r="D93">
-        <v>130.38999999999999</v>
+        <v>130.42599999999999</v>
       </c>
       <c r="E93">
-        <v>127.554</v>
+        <v>127.827</v>
       </c>
       <c r="F93">
-        <v>128.43600000000001</v>
+        <v>130.38399999999999</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2586,19 +2586,19 @@
         <v>2</v>
       </c>
       <c r="B94" s="1">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C94">
-        <v>130.381</v>
+        <v>128.964</v>
       </c>
       <c r="D94">
-        <v>130.86600000000001</v>
+        <v>130.38999999999999</v>
       </c>
       <c r="E94">
-        <v>128.04300000000001</v>
+        <v>127.554</v>
       </c>
       <c r="F94">
-        <v>129.059</v>
+        <v>128.43600000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2606,19 +2606,19 @@
         <v>2</v>
       </c>
       <c r="B95" s="1">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C95">
-        <v>130.03700000000001</v>
+        <v>130.381</v>
       </c>
       <c r="D95">
-        <v>131.39699999999999</v>
+        <v>130.86600000000001</v>
       </c>
       <c r="E95">
-        <v>129.53899999999999</v>
+        <v>128.04300000000001</v>
       </c>
       <c r="F95">
-        <v>130.35</v>
+        <v>129.059</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2626,19 +2626,19 @@
         <v>2</v>
       </c>
       <c r="B96" s="1">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C96">
-        <v>129.66800000000001</v>
+        <v>130.03700000000001</v>
       </c>
       <c r="D96">
-        <v>130.6</v>
+        <v>131.39699999999999</v>
       </c>
       <c r="E96">
-        <v>128.863</v>
+        <v>129.53899999999999</v>
       </c>
       <c r="F96">
-        <v>130.06200000000001</v>
+        <v>130.35</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2646,19 +2646,19 @@
         <v>2</v>
       </c>
       <c r="B97" s="1">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C97">
-        <v>128.994</v>
+        <v>129.66800000000001</v>
       </c>
       <c r="D97">
-        <v>130.499</v>
+        <v>130.6</v>
       </c>
       <c r="E97">
-        <v>128.571</v>
+        <v>128.863</v>
       </c>
       <c r="F97">
-        <v>129.60599999999999</v>
+        <v>130.06200000000001</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2666,19 +2666,19 @@
         <v>2</v>
       </c>
       <c r="B98" s="1">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C98">
-        <v>129.953</v>
+        <v>128.994</v>
       </c>
       <c r="D98">
-        <v>130.76</v>
+        <v>130.499</v>
       </c>
       <c r="E98">
-        <v>128.49199999999999</v>
+        <v>128.571</v>
       </c>
       <c r="F98">
-        <v>129.04499999999999</v>
+        <v>129.60599999999999</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2686,19 +2686,19 @@
         <v>2</v>
       </c>
       <c r="B99" s="1">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C99">
-        <v>128.14699999999999</v>
+        <v>129.953</v>
       </c>
       <c r="D99">
-        <v>130.12700000000001</v>
+        <v>130.76</v>
       </c>
       <c r="E99">
-        <v>127.99</v>
+        <v>128.49199999999999</v>
       </c>
       <c r="F99">
-        <v>129.84299999999999</v>
+        <v>129.04499999999999</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2706,19 +2706,19 @@
         <v>2</v>
       </c>
       <c r="B100" s="1">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C100">
-        <v>124.52</v>
+        <v>128.14699999999999</v>
       </c>
       <c r="D100">
-        <v>128.82400000000001</v>
+        <v>130.12700000000001</v>
       </c>
       <c r="E100">
-        <v>124.47</v>
+        <v>127.99</v>
       </c>
       <c r="F100">
-        <v>128.43600000000001</v>
+        <v>129.84299999999999</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2726,19 +2726,19 @@
         <v>2</v>
       </c>
       <c r="B101" s="1">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C101">
-        <v>124.09699999999999</v>
+        <v>124.52</v>
       </c>
       <c r="D101">
-        <v>124.69799999999999</v>
+        <v>128.82400000000001</v>
       </c>
       <c r="E101">
-        <v>123.649</v>
+        <v>124.47</v>
       </c>
       <c r="F101">
-        <v>124.6</v>
+        <v>128.43600000000001</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2746,19 +2746,19 @@
         <v>2</v>
       </c>
       <c r="B102" s="1">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C102">
-        <v>123.685</v>
+        <v>124.09699999999999</v>
       </c>
       <c r="D102">
-        <v>124.462</v>
+        <v>124.69799999999999</v>
       </c>
       <c r="E102">
-        <v>122.38200000000001</v>
+        <v>123.649</v>
       </c>
       <c r="F102">
-        <v>124.119</v>
+        <v>124.6</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2766,19 +2766,19 @@
         <v>2</v>
       </c>
       <c r="B103" s="1">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C103">
-        <v>124.55500000000001</v>
+        <v>123.685</v>
       </c>
       <c r="D103">
-        <v>124.70399999999999</v>
+        <v>124.462</v>
       </c>
       <c r="E103">
-        <v>122.61199999999999</v>
+        <v>122.38200000000001</v>
       </c>
       <c r="F103">
-        <v>123.46</v>
+        <v>124.119</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2786,19 +2786,19 @@
         <v>2</v>
       </c>
       <c r="B104" s="1">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C104">
-        <v>124.348</v>
+        <v>124.55500000000001</v>
       </c>
       <c r="D104">
-        <v>125.303</v>
+        <v>124.70399999999999</v>
       </c>
       <c r="E104">
-        <v>123.146</v>
+        <v>122.61199999999999</v>
       </c>
       <c r="F104">
-        <v>124.56399999999999</v>
+        <v>123.46</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2806,19 +2806,19 @@
         <v>2</v>
       </c>
       <c r="B105" s="1">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C105">
-        <v>124.529</v>
+        <v>124.348</v>
       </c>
       <c r="D105">
-        <v>125.795</v>
+        <v>125.303</v>
       </c>
       <c r="E105">
-        <v>124.11199999999999</v>
+        <v>123.146</v>
       </c>
       <c r="F105">
-        <v>124.35299999999999</v>
+        <v>124.56399999999999</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2826,19 +2826,19 @@
         <v>2</v>
       </c>
       <c r="B106" s="1">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C106">
-        <v>123.768</v>
+        <v>124.529</v>
       </c>
       <c r="D106">
-        <v>125.806</v>
+        <v>125.795</v>
       </c>
       <c r="E106">
-        <v>122.55</v>
+        <v>124.11199999999999</v>
       </c>
       <c r="F106">
-        <v>124.622</v>
+        <v>124.35299999999999</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2846,19 +2846,19 @@
         <v>2</v>
       </c>
       <c r="B107" s="1">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C107">
-        <v>124.285</v>
+        <v>123.768</v>
       </c>
       <c r="D107">
-        <v>124.536</v>
+        <v>125.806</v>
       </c>
       <c r="E107">
-        <v>122.979</v>
+        <v>122.55</v>
       </c>
       <c r="F107">
-        <v>123.867</v>
+        <v>124.622</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2866,19 +2866,19 @@
         <v>2</v>
       </c>
       <c r="B108" s="1">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C108">
-        <v>121.428</v>
+        <v>124.285</v>
       </c>
       <c r="D108">
-        <v>123.931</v>
+        <v>124.536</v>
       </c>
       <c r="E108">
-        <v>121.28400000000001</v>
+        <v>122.979</v>
       </c>
       <c r="F108">
-        <v>123.845</v>
+        <v>123.867</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2886,19 +2886,19 @@
         <v>2</v>
       </c>
       <c r="B109" s="1">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C109">
-        <v>120.04</v>
+        <v>121.428</v>
       </c>
       <c r="D109">
-        <v>121.99299999999999</v>
+        <v>123.931</v>
       </c>
       <c r="E109">
-        <v>118.91200000000001</v>
+        <v>121.28400000000001</v>
       </c>
       <c r="F109">
-        <v>121.41500000000001</v>
+        <v>123.845</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2906,19 +2906,19 @@
         <v>2</v>
       </c>
       <c r="B110" s="1">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C110">
-        <v>115.319</v>
+        <v>120.04</v>
       </c>
       <c r="D110">
-        <v>117.81</v>
+        <v>121.99299999999999</v>
       </c>
       <c r="E110">
-        <v>114.843</v>
+        <v>118.91200000000001</v>
       </c>
       <c r="F110">
-        <v>117.008</v>
+        <v>121.41500000000001</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2926,19 +2926,19 @@
         <v>2</v>
       </c>
       <c r="B111" s="1">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C111">
-        <v>117.524</v>
+        <v>115.319</v>
       </c>
       <c r="D111">
-        <v>118.05200000000001</v>
+        <v>117.81</v>
       </c>
       <c r="E111">
-        <v>115.19199999999999</v>
+        <v>114.843</v>
       </c>
       <c r="F111">
-        <v>115.27800000000001</v>
+        <v>117.008</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2946,19 +2946,19 @@
         <v>2</v>
       </c>
       <c r="B112" s="1">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C112">
-        <v>118.733</v>
+        <v>117.524</v>
       </c>
       <c r="D112">
-        <v>119.04</v>
+        <v>118.05200000000001</v>
       </c>
       <c r="E112">
-        <v>117.31</v>
+        <v>115.19199999999999</v>
       </c>
       <c r="F112">
-        <v>117.726</v>
+        <v>115.27800000000001</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2966,19 +2966,19 @@
         <v>2</v>
       </c>
       <c r="B113" s="1">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C113">
-        <v>120.15300000000001</v>
+        <v>118.733</v>
       </c>
       <c r="D113">
-        <v>120.434</v>
+        <v>119.04</v>
       </c>
       <c r="E113">
-        <v>118.66</v>
+        <v>117.31</v>
       </c>
       <c r="F113">
-        <v>118.672</v>
+        <v>117.726</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2986,19 +2986,19 @@
         <v>2</v>
       </c>
       <c r="B114" s="1">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C114">
-        <v>120.961</v>
+        <v>120.15300000000001</v>
       </c>
       <c r="D114">
-        <v>121.828</v>
+        <v>120.434</v>
       </c>
       <c r="E114">
-        <v>119.316</v>
+        <v>118.66</v>
       </c>
       <c r="F114">
-        <v>120.23399999999999</v>
+        <v>118.672</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3006,19 +3006,19 @@
         <v>2</v>
       </c>
       <c r="B115" s="1">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C115">
-        <v>122.60899999999999</v>
+        <v>120.961</v>
       </c>
       <c r="D115">
-        <v>122.878</v>
+        <v>121.828</v>
       </c>
       <c r="E115">
-        <v>120.81100000000001</v>
+        <v>119.316</v>
       </c>
       <c r="F115">
-        <v>120.976</v>
+        <v>120.23399999999999</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3026,19 +3026,19 @@
         <v>2</v>
       </c>
       <c r="B116" s="1">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C116">
-        <v>120.83799999999999</v>
+        <v>122.60899999999999</v>
       </c>
       <c r="D116">
-        <v>122.828</v>
+        <v>122.878</v>
       </c>
       <c r="E116">
-        <v>120.011</v>
+        <v>120.81100000000001</v>
       </c>
       <c r="F116">
-        <v>122.48699999999999</v>
+        <v>120.976</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3046,19 +3046,19 @@
         <v>2</v>
       </c>
       <c r="B117" s="1">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C117">
-        <v>118.43899999999999</v>
+        <v>120.83799999999999</v>
       </c>
       <c r="D117">
-        <v>121.054</v>
+        <v>122.828</v>
       </c>
       <c r="E117">
-        <v>118.24299999999999</v>
+        <v>120.011</v>
       </c>
       <c r="F117">
-        <v>121.051</v>
+        <v>122.48699999999999</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3066,19 +3066,19 @@
         <v>2</v>
       </c>
       <c r="B118" s="1">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C118">
-        <v>119.73</v>
+        <v>118.43899999999999</v>
       </c>
       <c r="D118">
-        <v>120.30800000000001</v>
+        <v>121.054</v>
       </c>
       <c r="E118">
-        <v>118.23</v>
+        <v>118.24299999999999</v>
       </c>
       <c r="F118">
-        <v>118.398</v>
+        <v>121.051</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3086,19 +3086,19 @@
         <v>2</v>
       </c>
       <c r="B119" s="1">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C119">
-        <v>120.669</v>
+        <v>119.73</v>
       </c>
       <c r="D119">
-        <v>121.27200000000001</v>
+        <v>120.30800000000001</v>
       </c>
       <c r="E119">
-        <v>119.694</v>
+        <v>118.23</v>
       </c>
       <c r="F119">
-        <v>119.75700000000001</v>
+        <v>118.398</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3106,19 +3106,19 @@
         <v>2</v>
       </c>
       <c r="B120" s="1">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C120">
-        <v>121.322</v>
+        <v>120.669</v>
       </c>
       <c r="D120">
-        <v>121.489</v>
+        <v>121.27200000000001</v>
       </c>
       <c r="E120">
-        <v>119.32</v>
+        <v>119.694</v>
       </c>
       <c r="F120">
-        <v>120.438</v>
+        <v>119.75700000000001</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3126,19 +3126,19 @@
         <v>2</v>
       </c>
       <c r="B121" s="1">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C121">
-        <v>123.015</v>
+        <v>121.322</v>
       </c>
       <c r="D121">
-        <v>123.14100000000001</v>
+        <v>121.489</v>
       </c>
       <c r="E121">
-        <v>121.009</v>
+        <v>119.32</v>
       </c>
       <c r="F121">
-        <v>121.407</v>
+        <v>120.438</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3146,19 +3146,19 @@
         <v>2</v>
       </c>
       <c r="B122" s="1">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C122">
-        <v>122.217</v>
+        <v>123.015</v>
       </c>
       <c r="D122">
-        <v>123.30800000000001</v>
+        <v>123.14100000000001</v>
       </c>
       <c r="E122">
-        <v>121.128</v>
+        <v>121.009</v>
       </c>
       <c r="F122">
-        <v>123.096</v>
+        <v>121.407</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3166,19 +3166,19 @@
         <v>2</v>
       </c>
       <c r="B123" s="1">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C123">
-        <v>121.152</v>
+        <v>122.217</v>
       </c>
       <c r="D123">
-        <v>122.94</v>
+        <v>123.30800000000001</v>
       </c>
       <c r="E123">
-        <v>120.539</v>
+        <v>121.128</v>
       </c>
       <c r="F123">
-        <v>122.51900000000001</v>
+        <v>123.096</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3186,19 +3186,19 @@
         <v>2</v>
       </c>
       <c r="B124" s="1">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C124">
-        <v>123.205</v>
+        <v>121.152</v>
       </c>
       <c r="D124">
-        <v>123.717</v>
+        <v>122.94</v>
       </c>
       <c r="E124">
-        <v>121.185</v>
+        <v>120.539</v>
       </c>
       <c r="F124">
-        <v>121.884</v>
+        <v>122.51900000000001</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3206,19 +3206,19 @@
         <v>2</v>
       </c>
       <c r="B125" s="1">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C125">
-        <v>122.753</v>
+        <v>123.205</v>
       </c>
       <c r="D125">
-        <v>123.443</v>
+        <v>123.717</v>
       </c>
       <c r="E125">
-        <v>122.00700000000001</v>
+        <v>121.185</v>
       </c>
       <c r="F125">
-        <v>123.22499999999999</v>
+        <v>121.884</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3226,19 +3226,19 @@
         <v>2</v>
       </c>
       <c r="B126" s="1">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C126">
-        <v>122.456</v>
+        <v>122.753</v>
       </c>
       <c r="D126">
-        <v>123.855</v>
+        <v>123.443</v>
       </c>
       <c r="E126">
-        <v>121.59</v>
+        <v>122.00700000000001</v>
       </c>
       <c r="F126">
-        <v>123.03400000000001</v>
+        <v>123.22499999999999</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3246,19 +3246,19 @@
         <v>2</v>
       </c>
       <c r="B127" s="1">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C127">
-        <v>123.136</v>
+        <v>122.456</v>
       </c>
       <c r="D127">
-        <v>123.223</v>
+        <v>123.855</v>
       </c>
       <c r="E127">
-        <v>121.675</v>
+        <v>121.59</v>
       </c>
       <c r="F127">
-        <v>122.617</v>
+        <v>123.03400000000001</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3266,19 +3266,19 @@
         <v>2</v>
       </c>
       <c r="B128" s="1">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C128">
-        <v>121.51900000000001</v>
+        <v>123.136</v>
       </c>
       <c r="D128">
-        <v>124.08799999999999</v>
+        <v>123.223</v>
       </c>
       <c r="E128">
-        <v>121.51900000000001</v>
+        <v>121.675</v>
       </c>
       <c r="F128">
-        <v>123.223</v>
+        <v>122.617</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3286,19 +3286,19 @@
         <v>2</v>
       </c>
       <c r="B129" s="1">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C129">
-        <v>120.827</v>
+        <v>121.51900000000001</v>
       </c>
       <c r="D129">
-        <v>123.32599999999999</v>
+        <v>124.08799999999999</v>
       </c>
       <c r="E129">
-        <v>118.702</v>
+        <v>121.51900000000001</v>
       </c>
       <c r="F129">
-        <v>121.723</v>
+        <v>123.223</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3306,19 +3306,19 @@
         <v>2</v>
       </c>
       <c r="B130" s="1">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C130">
-        <v>119.688</v>
+        <v>120.827</v>
       </c>
       <c r="D130">
-        <v>121.88200000000001</v>
+        <v>123.32599999999999</v>
       </c>
       <c r="E130">
-        <v>118.54600000000001</v>
+        <v>118.702</v>
       </c>
       <c r="F130">
-        <v>121.164</v>
+        <v>121.723</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3326,19 +3326,19 @@
         <v>2</v>
       </c>
       <c r="B131" s="1">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C131">
-        <v>117.49299999999999</v>
+        <v>119.688</v>
       </c>
       <c r="D131">
-        <v>120.154</v>
+        <v>121.88200000000001</v>
       </c>
       <c r="E131">
-        <v>117.306</v>
+        <v>118.54600000000001</v>
       </c>
       <c r="F131">
-        <v>119.745</v>
+        <v>121.164</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3346,19 +3346,19 @@
         <v>2</v>
       </c>
       <c r="B132" s="1">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C132">
-        <v>115.747</v>
+        <v>117.49299999999999</v>
       </c>
       <c r="D132">
-        <v>117.47799999999999</v>
+        <v>120.154</v>
       </c>
       <c r="E132">
-        <v>115.547</v>
+        <v>117.306</v>
       </c>
       <c r="F132">
-        <v>117.47799999999999</v>
+        <v>119.745</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3366,19 +3366,19 @@
         <v>2</v>
       </c>
       <c r="B133" s="1">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C133">
-        <v>115.04300000000001</v>
+        <v>115.747</v>
       </c>
       <c r="D133">
-        <v>116.566</v>
+        <v>117.47799999999999</v>
       </c>
       <c r="E133">
-        <v>113.69499999999999</v>
+        <v>115.547</v>
       </c>
       <c r="F133">
-        <v>115.81100000000001</v>
+        <v>117.47799999999999</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3386,19 +3386,19 @@
         <v>2</v>
       </c>
       <c r="B134" s="1">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C134">
-        <v>114.842</v>
+        <v>115.04300000000001</v>
       </c>
       <c r="D134">
-        <v>115.67100000000001</v>
+        <v>116.566</v>
       </c>
       <c r="E134">
-        <v>114.00700000000001</v>
+        <v>113.69499999999999</v>
       </c>
       <c r="F134">
-        <v>114.736</v>
+        <v>115.81100000000001</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3406,19 +3406,19 @@
         <v>2</v>
       </c>
       <c r="B135" s="1">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C135">
-        <v>112.964</v>
+        <v>114.842</v>
       </c>
       <c r="D135">
-        <v>115.316</v>
+        <v>115.67100000000001</v>
       </c>
       <c r="E135">
-        <v>112.83</v>
+        <v>114.00700000000001</v>
       </c>
       <c r="F135">
-        <v>115.078</v>
+        <v>114.736</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3426,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="B136" s="1">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C136">
-        <v>114.422</v>
+        <v>112.964</v>
       </c>
       <c r="D136">
-        <v>114.67100000000001</v>
+        <v>115.316</v>
       </c>
       <c r="E136">
-        <v>112.602</v>
+        <v>112.83</v>
       </c>
       <c r="F136">
-        <v>112.974</v>
+        <v>115.078</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3446,19 +3446,19 @@
         <v>2</v>
       </c>
       <c r="B137" s="1">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C137">
-        <v>115.29600000000001</v>
+        <v>114.422</v>
       </c>
       <c r="D137">
-        <v>115.78400000000001</v>
+        <v>114.67100000000001</v>
       </c>
       <c r="E137">
-        <v>113.907</v>
+        <v>112.602</v>
       </c>
       <c r="F137">
-        <v>114.313</v>
+        <v>112.974</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3466,19 +3466,19 @@
         <v>2</v>
       </c>
       <c r="B138" s="1">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C138">
-        <v>113.883</v>
+        <v>115.29600000000001</v>
       </c>
       <c r="D138">
-        <v>116.274</v>
+        <v>115.78400000000001</v>
       </c>
       <c r="E138">
-        <v>113.621</v>
+        <v>113.907</v>
       </c>
       <c r="F138">
-        <v>115.232</v>
+        <v>114.313</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3486,19 +3486,19 @@
         <v>2</v>
       </c>
       <c r="B139" s="1">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C139">
-        <v>113.4</v>
+        <v>113.883</v>
       </c>
       <c r="D139">
-        <v>114.181</v>
+        <v>116.274</v>
       </c>
       <c r="E139">
-        <v>112.241</v>
+        <v>113.621</v>
       </c>
       <c r="F139">
-        <v>113.92</v>
+        <v>115.232</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3506,19 +3506,19 @@
         <v>2</v>
       </c>
       <c r="B140" s="1">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C140">
-        <v>113.999</v>
+        <v>113.4</v>
       </c>
       <c r="D140">
-        <v>114.38800000000001</v>
+        <v>114.181</v>
       </c>
       <c r="E140">
-        <v>112.077</v>
+        <v>112.241</v>
       </c>
       <c r="F140">
-        <v>113.45</v>
+        <v>113.92</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3526,19 +3526,19 @@
         <v>2</v>
       </c>
       <c r="B141" s="1">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C141">
-        <v>115.217</v>
+        <v>113.999</v>
       </c>
       <c r="D141">
-        <v>116.07599999999999</v>
+        <v>114.38800000000001</v>
       </c>
       <c r="E141">
-        <v>113.926</v>
+        <v>112.077</v>
       </c>
       <c r="F141">
-        <v>114.101</v>
+        <v>113.45</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3546,19 +3546,19 @@
         <v>2</v>
       </c>
       <c r="B142" s="1">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C142">
-        <v>116.045</v>
+        <v>115.217</v>
       </c>
       <c r="D142">
-        <v>116.151</v>
+        <v>116.07599999999999</v>
       </c>
       <c r="E142">
-        <v>113.803</v>
+        <v>113.926</v>
       </c>
       <c r="F142">
-        <v>115.34</v>
+        <v>114.101</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3566,19 +3566,19 @@
         <v>2</v>
       </c>
       <c r="B143" s="1">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C143">
-        <v>114.002</v>
+        <v>116.045</v>
       </c>
       <c r="D143">
-        <v>116.358</v>
+        <v>116.151</v>
       </c>
       <c r="E143">
-        <v>113.851</v>
+        <v>113.803</v>
       </c>
       <c r="F143">
-        <v>116.045</v>
+        <v>115.34</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3586,19 +3586,19 @@
         <v>2</v>
       </c>
       <c r="B144" s="1">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C144">
-        <v>113.905</v>
+        <v>114.002</v>
       </c>
       <c r="D144">
-        <v>114.126</v>
+        <v>116.358</v>
       </c>
       <c r="E144">
-        <v>112.78400000000001</v>
+        <v>113.851</v>
       </c>
       <c r="F144">
-        <v>113.953</v>
+        <v>116.045</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3606,19 +3606,19 @@
         <v>2</v>
       </c>
       <c r="B145" s="1">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C145">
-        <v>113.041</v>
+        <v>113.905</v>
       </c>
       <c r="D145">
-        <v>113.92</v>
+        <v>114.126</v>
       </c>
       <c r="E145">
-        <v>112.358</v>
+        <v>112.78400000000001</v>
       </c>
       <c r="F145">
-        <v>113.431</v>
+        <v>113.953</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3626,19 +3626,19 @@
         <v>2</v>
       </c>
       <c r="B146" s="1">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C146">
-        <v>112.95699999999999</v>
+        <v>113.041</v>
       </c>
       <c r="D146">
-        <v>114.02200000000001</v>
+        <v>113.92</v>
       </c>
       <c r="E146">
-        <v>112.7</v>
+        <v>112.358</v>
       </c>
       <c r="F146">
-        <v>112.995</v>
+        <v>113.431</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3646,19 +3646,19 @@
         <v>2</v>
       </c>
       <c r="B147" s="1">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C147">
-        <v>114.21899999999999</v>
+        <v>112.95699999999999</v>
       </c>
       <c r="D147">
-        <v>114.80800000000001</v>
+        <v>114.02200000000001</v>
       </c>
       <c r="E147">
-        <v>112.312</v>
+        <v>112.7</v>
       </c>
       <c r="F147">
-        <v>112.86199999999999</v>
+        <v>112.995</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3666,19 +3666,19 @@
         <v>2</v>
       </c>
       <c r="B148" s="1">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C148">
-        <v>116.494</v>
+        <v>114.21899999999999</v>
       </c>
       <c r="D148">
-        <v>117.14400000000001</v>
+        <v>114.80800000000001</v>
       </c>
       <c r="E148">
-        <v>113.875</v>
+        <v>112.312</v>
       </c>
       <c r="F148">
-        <v>114.11799999999999</v>
+        <v>112.86199999999999</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3686,19 +3686,19 @@
         <v>2</v>
       </c>
       <c r="B149" s="1">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C149">
-        <v>116.508</v>
+        <v>116.494</v>
       </c>
       <c r="D149">
-        <v>118.45699999999999</v>
+        <v>117.14400000000001</v>
       </c>
       <c r="E149">
-        <v>116.14100000000001</v>
+        <v>113.875</v>
       </c>
       <c r="F149">
-        <v>116.592</v>
+        <v>114.11799999999999</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3706,19 +3706,19 @@
         <v>2</v>
       </c>
       <c r="B150" s="1">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C150">
-        <v>111.146</v>
+        <v>116.508</v>
       </c>
       <c r="D150">
-        <v>118.404</v>
+        <v>118.45699999999999</v>
       </c>
       <c r="E150">
-        <v>111.081</v>
+        <v>116.14100000000001</v>
       </c>
       <c r="F150">
-        <v>115.8</v>
+        <v>116.592</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3726,19 +3726,19 @@
         <v>2</v>
       </c>
       <c r="B151" s="1">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C151">
-        <v>114.218</v>
+        <v>111.146</v>
       </c>
       <c r="D151">
-        <v>114.502</v>
+        <v>118.404</v>
       </c>
       <c r="E151">
-        <v>110.819</v>
+        <v>111.081</v>
       </c>
       <c r="F151">
-        <v>111.008</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3746,19 +3746,19 @@
         <v>2</v>
       </c>
       <c r="B152" s="1">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C152">
-        <v>112.40900000000001</v>
+        <v>114.218</v>
       </c>
       <c r="D152">
-        <v>114.788</v>
+        <v>114.502</v>
       </c>
       <c r="E152">
-        <v>111.375</v>
+        <v>110.819</v>
       </c>
       <c r="F152">
-        <v>114.22199999999999</v>
+        <v>111.008</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3766,19 +3766,19 @@
         <v>2</v>
       </c>
       <c r="B153" s="1">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C153">
-        <v>118.511</v>
+        <v>112.40900000000001</v>
       </c>
       <c r="D153">
-        <v>121.925</v>
+        <v>114.788</v>
       </c>
       <c r="E153">
-        <v>109.093</v>
+        <v>111.375</v>
       </c>
       <c r="F153">
-        <v>113.464</v>
+        <v>114.22199999999999</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3786,19 +3786,19 @@
         <v>2</v>
       </c>
       <c r="B154" s="1">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C154">
-        <v>120.124</v>
+        <v>118.511</v>
       </c>
       <c r="D154">
-        <v>120.309</v>
+        <v>121.925</v>
       </c>
       <c r="E154">
-        <v>115.48699999999999</v>
+        <v>109.093</v>
       </c>
       <c r="F154">
-        <v>117.48099999999999</v>
+        <v>113.464</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3806,19 +3806,19 @@
         <v>2</v>
       </c>
       <c r="B155" s="1">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C155">
-        <v>121.032</v>
+        <v>120.124</v>
       </c>
       <c r="D155">
-        <v>122.691</v>
+        <v>120.309</v>
       </c>
       <c r="E155">
-        <v>119.90900000000001</v>
+        <v>115.48699999999999</v>
       </c>
       <c r="F155">
-        <v>120.364</v>
+        <v>117.48099999999999</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3826,19 +3826,19 @@
         <v>2</v>
       </c>
       <c r="B156" s="1">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C156">
+        <v>121.032</v>
+      </c>
+      <c r="D156">
         <v>122.691</v>
       </c>
-      <c r="D156">
-        <v>124.181</v>
-      </c>
       <c r="E156">
-        <v>120.819</v>
+        <v>119.90900000000001</v>
       </c>
       <c r="F156">
-        <v>121.125</v>
+        <v>120.364</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3846,19 +3846,19 @@
         <v>2</v>
       </c>
       <c r="B157" s="1">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C157">
-        <v>123.544</v>
+        <v>122.691</v>
       </c>
       <c r="D157">
-        <v>123.63800000000001</v>
+        <v>124.181</v>
       </c>
       <c r="E157">
-        <v>122.20699999999999</v>
+        <v>120.819</v>
       </c>
       <c r="F157">
-        <v>122.621</v>
+        <v>121.125</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3866,19 +3866,19 @@
         <v>2</v>
       </c>
       <c r="B158" s="1">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C158">
-        <v>122.82299999999999</v>
+        <v>123.544</v>
       </c>
       <c r="D158">
-        <v>124.166</v>
+        <v>123.63800000000001</v>
       </c>
       <c r="E158">
-        <v>122.611</v>
+        <v>122.20699999999999</v>
       </c>
       <c r="F158">
-        <v>123.56399999999999</v>
+        <v>122.621</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3886,19 +3886,19 @@
         <v>2</v>
       </c>
       <c r="B159" s="1">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C159">
-        <v>122.181</v>
+        <v>122.82299999999999</v>
       </c>
       <c r="D159">
-        <v>124.631</v>
+        <v>124.166</v>
       </c>
       <c r="E159">
-        <v>122.111</v>
+        <v>122.611</v>
       </c>
       <c r="F159">
-        <v>122.819</v>
+        <v>123.56399999999999</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3906,19 +3906,19 @@
         <v>2</v>
       </c>
       <c r="B160" s="1">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C160">
-        <v>121.85299999999999</v>
+        <v>122.181</v>
       </c>
       <c r="D160">
-        <v>123.518</v>
+        <v>124.631</v>
       </c>
       <c r="E160">
-        <v>121.476</v>
+        <v>122.111</v>
       </c>
       <c r="F160">
-        <v>122.136</v>
+        <v>122.819</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3926,19 +3926,19 @@
         <v>2</v>
       </c>
       <c r="B161" s="1">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C161">
-        <v>125.43899999999999</v>
+        <v>121.85299999999999</v>
       </c>
       <c r="D161">
-        <v>126.46299999999999</v>
+        <v>123.518</v>
       </c>
       <c r="E161">
-        <v>121.672</v>
+        <v>121.476</v>
       </c>
       <c r="F161">
-        <v>121.80800000000001</v>
+        <v>122.136</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3946,19 +3946,19 @@
         <v>2</v>
       </c>
       <c r="B162" s="1">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C162">
-        <v>122.161</v>
+        <v>125.43899999999999</v>
       </c>
       <c r="D162">
-        <v>125.492</v>
+        <v>126.46299999999999</v>
       </c>
       <c r="E162">
-        <v>121.70699999999999</v>
+        <v>121.672</v>
       </c>
       <c r="F162">
-        <v>125.465</v>
+        <v>121.80800000000001</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3966,19 +3966,19 @@
         <v>2</v>
       </c>
       <c r="B163" s="1">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C163">
-        <v>123.26900000000001</v>
+        <v>122.161</v>
       </c>
       <c r="D163">
-        <v>123.988</v>
+        <v>125.492</v>
       </c>
       <c r="E163">
-        <v>122.59</v>
+        <v>121.70699999999999</v>
       </c>
       <c r="F163">
-        <v>122.629</v>
+        <v>125.465</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3986,19 +3986,19 @@
         <v>2</v>
       </c>
       <c r="B164" s="1">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C164">
-        <v>127.123</v>
+        <v>123.26900000000001</v>
       </c>
       <c r="D164">
-        <v>127.349</v>
+        <v>123.988</v>
       </c>
       <c r="E164">
-        <v>122.53700000000001</v>
+        <v>122.59</v>
       </c>
       <c r="F164">
-        <v>123.179</v>
+        <v>122.629</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4006,19 +4006,19 @@
         <v>2</v>
       </c>
       <c r="B165" s="1">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C165">
-        <v>126.482</v>
+        <v>127.123</v>
       </c>
       <c r="D165">
-        <v>128.21199999999999</v>
+        <v>127.349</v>
       </c>
       <c r="E165">
-        <v>126.377</v>
+        <v>122.53700000000001</v>
       </c>
       <c r="F165">
-        <v>127.18</v>
+        <v>123.179</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4026,19 +4026,19 @@
         <v>2</v>
       </c>
       <c r="B166" s="1">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C166">
-        <v>125.669</v>
+        <v>126.482</v>
       </c>
       <c r="D166">
-        <v>126.45</v>
+        <v>128.21199999999999</v>
       </c>
       <c r="E166">
-        <v>124.66500000000001</v>
+        <v>126.377</v>
       </c>
       <c r="F166">
-        <v>126.304</v>
+        <v>127.18</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4046,19 +4046,19 @@
         <v>2</v>
       </c>
       <c r="B167" s="1">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C167">
-        <v>126.94499999999999</v>
+        <v>125.669</v>
       </c>
       <c r="D167">
-        <v>127.146</v>
+        <v>126.45</v>
       </c>
       <c r="E167">
-        <v>125.089</v>
+        <v>124.66500000000001</v>
       </c>
       <c r="F167">
-        <v>125.824</v>
+        <v>126.304</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4066,19 +4066,19 @@
         <v>2</v>
       </c>
       <c r="B168" s="1">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C168">
-        <v>125.199</v>
+        <v>126.94499999999999</v>
       </c>
       <c r="D168">
-        <v>127.282</v>
+        <v>127.146</v>
       </c>
       <c r="E168">
-        <v>123.053</v>
+        <v>125.089</v>
       </c>
       <c r="F168">
-        <v>126.886</v>
+        <v>125.824</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4086,19 +4086,19 @@
         <v>2</v>
       </c>
       <c r="B169" s="1">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C169">
-        <v>124.363</v>
+        <v>125.199</v>
       </c>
       <c r="D169">
-        <v>125.58</v>
+        <v>127.282</v>
       </c>
       <c r="E169">
-        <v>122.068</v>
+        <v>123.053</v>
       </c>
       <c r="F169">
-        <v>125.265</v>
+        <v>126.886</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4106,19 +4106,19 @@
         <v>2</v>
       </c>
       <c r="B170" s="1">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C170">
-        <v>125.06</v>
+        <v>124.363</v>
       </c>
       <c r="D170">
-        <v>125.55800000000001</v>
+        <v>125.58</v>
       </c>
       <c r="E170">
-        <v>122.44499999999999</v>
+        <v>122.068</v>
       </c>
       <c r="F170">
-        <v>124.64100000000001</v>
+        <v>125.265</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4126,19 +4126,19 @@
         <v>2</v>
       </c>
       <c r="B171" s="1">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C171">
-        <v>127.401</v>
+        <v>125.06</v>
       </c>
       <c r="D171">
-        <v>128.16499999999999</v>
+        <v>125.55800000000001</v>
       </c>
       <c r="E171">
-        <v>125.011</v>
+        <v>122.44499999999999</v>
       </c>
       <c r="F171">
-        <v>125.34699999999999</v>
+        <v>124.64100000000001</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4146,19 +4146,19 @@
         <v>2</v>
       </c>
       <c r="B172" s="1">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C172">
-        <v>130.10400000000001</v>
+        <v>127.401</v>
       </c>
       <c r="D172">
-        <v>130.89099999999999</v>
+        <v>128.16499999999999</v>
       </c>
       <c r="E172">
-        <v>125.752</v>
+        <v>125.011</v>
       </c>
       <c r="F172">
-        <v>127.496</v>
+        <v>125.34699999999999</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4166,19 +4166,19 @@
         <v>2</v>
       </c>
       <c r="B173" s="1">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C173">
-        <v>131.346</v>
+        <v>130.10400000000001</v>
       </c>
       <c r="D173">
-        <v>132.01400000000001</v>
+        <v>130.89099999999999</v>
       </c>
       <c r="E173">
-        <v>130.05000000000001</v>
+        <v>125.752</v>
       </c>
       <c r="F173">
-        <v>130.441</v>
+        <v>127.496</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4186,19 +4186,19 @@
         <v>2</v>
       </c>
       <c r="B174" s="1">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C174">
-        <v>127.971</v>
+        <v>131.346</v>
       </c>
       <c r="D174">
-        <v>132.24799999999999</v>
+        <v>132.01400000000001</v>
       </c>
       <c r="E174">
-        <v>127.80800000000001</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="F174">
-        <v>131.15600000000001</v>
+        <v>130.441</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4206,19 +4206,19 @@
         <v>2</v>
       </c>
       <c r="B175" s="1">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C175">
-        <v>127.431</v>
+        <v>127.971</v>
       </c>
       <c r="D175">
-        <v>128.54900000000001</v>
+        <v>132.24799999999999</v>
       </c>
       <c r="E175">
-        <v>126.161</v>
+        <v>127.80800000000001</v>
       </c>
       <c r="F175">
-        <v>128.26599999999999</v>
+        <v>131.15600000000001</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4226,19 +4226,19 @@
         <v>2</v>
       </c>
       <c r="B176" s="1">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C176">
-        <v>127.962</v>
+        <v>127.431</v>
       </c>
       <c r="D176">
-        <v>128.744</v>
+        <v>128.54900000000001</v>
       </c>
       <c r="E176">
-        <v>127.309</v>
+        <v>126.161</v>
       </c>
       <c r="F176">
-        <v>127.68300000000001</v>
+        <v>128.26599999999999</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4246,19 +4246,19 @@
         <v>2</v>
       </c>
       <c r="B177" s="1">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C177">
-        <v>130.595</v>
+        <v>127.962</v>
       </c>
       <c r="D177">
-        <v>130.751</v>
+        <v>128.744</v>
       </c>
       <c r="E177">
-        <v>126.771</v>
+        <v>127.309</v>
       </c>
       <c r="F177">
-        <v>128.376</v>
+        <v>127.68300000000001</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4266,19 +4266,19 @@
         <v>2</v>
       </c>
       <c r="B178" s="1">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C178">
-        <v>131.49100000000001</v>
+        <v>130.595</v>
       </c>
       <c r="D178">
-        <v>132.45599999999999</v>
+        <v>130.751</v>
       </c>
       <c r="E178">
-        <v>130.46600000000001</v>
+        <v>126.771</v>
       </c>
       <c r="F178">
-        <v>130.64099999999999</v>
+        <v>128.376</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4286,19 +4286,19 @@
         <v>2</v>
       </c>
       <c r="B179" s="1">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C179">
-        <v>131.52199999999999</v>
+        <v>131.49100000000001</v>
       </c>
       <c r="D179">
-        <v>132.78800000000001</v>
+        <v>132.45599999999999</v>
       </c>
       <c r="E179">
-        <v>131.46199999999999</v>
+        <v>130.46600000000001</v>
       </c>
       <c r="F179">
-        <v>131.69300000000001</v>
+        <v>130.64099999999999</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4306,19 +4306,19 @@
         <v>2</v>
       </c>
       <c r="B180" s="1">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C180">
-        <v>133.07</v>
+        <v>131.52199999999999</v>
       </c>
       <c r="D180">
-        <v>133.78100000000001</v>
+        <v>132.78800000000001</v>
       </c>
       <c r="E180">
-        <v>131.00700000000001</v>
+        <v>131.46199999999999</v>
       </c>
       <c r="F180">
-        <v>131.72399999999999</v>
+        <v>131.69300000000001</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4326,19 +4326,19 @@
         <v>2</v>
       </c>
       <c r="B181" s="1">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C181">
-        <v>133.91</v>
+        <v>133.07</v>
       </c>
       <c r="D181">
-        <v>134.21299999999999</v>
+        <v>133.78100000000001</v>
       </c>
       <c r="E181">
-        <v>132.62200000000001</v>
+        <v>131.00700000000001</v>
       </c>
       <c r="F181">
-        <v>132.86600000000001</v>
+        <v>131.72399999999999</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4346,19 +4346,19 @@
         <v>2</v>
       </c>
       <c r="B182" s="1">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C182">
-        <v>130.03800000000001</v>
+        <v>133.91</v>
       </c>
       <c r="D182">
-        <v>134.58099999999999</v>
+        <v>134.21299999999999</v>
       </c>
       <c r="E182">
-        <v>129.755</v>
+        <v>132.62200000000001</v>
       </c>
       <c r="F182">
-        <v>133.90199999999999</v>
+        <v>132.86600000000001</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4366,19 +4366,19 @@
         <v>2</v>
       </c>
       <c r="B183" s="1">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C183">
-        <v>130.69</v>
+        <v>130.03800000000001</v>
       </c>
       <c r="D183">
-        <v>131.036</v>
+        <v>134.58099999999999</v>
       </c>
       <c r="E183">
-        <v>129.661</v>
+        <v>129.755</v>
       </c>
       <c r="F183">
-        <v>130.15299999999999</v>
+        <v>133.90199999999999</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4386,19 +4386,19 @@
         <v>2</v>
       </c>
       <c r="B184" s="1">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C184">
-        <v>131.21299999999999</v>
+        <v>130.69</v>
       </c>
       <c r="D184">
-        <v>132.26900000000001</v>
+        <v>131.036</v>
       </c>
       <c r="E184">
-        <v>130.64099999999999</v>
+        <v>129.661</v>
       </c>
       <c r="F184">
-        <v>130.81299999999999</v>
+        <v>130.15299999999999</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4406,19 +4406,19 @@
         <v>2</v>
       </c>
       <c r="B185" s="1">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C185">
+        <v>131.21299999999999</v>
+      </c>
+      <c r="D185">
         <v>132.26900000000001</v>
       </c>
-      <c r="D185">
-        <v>133.185</v>
-      </c>
       <c r="E185">
-        <v>131.477</v>
+        <v>130.64099999999999</v>
       </c>
       <c r="F185">
-        <v>131.911</v>
+        <v>130.81299999999999</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4426,19 +4426,19 @@
         <v>2</v>
       </c>
       <c r="B186" s="1">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C186">
-        <v>132.803</v>
+        <v>132.26900000000001</v>
       </c>
       <c r="D186">
-        <v>133.19900000000001</v>
+        <v>133.185</v>
       </c>
       <c r="E186">
-        <v>131.333</v>
+        <v>131.477</v>
       </c>
       <c r="F186">
-        <v>132.26400000000001</v>
+        <v>131.911</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4446,19 +4446,19 @@
         <v>2</v>
       </c>
       <c r="B187" s="1">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C187">
-        <v>133.643</v>
+        <v>132.803</v>
       </c>
       <c r="D187">
-        <v>133.893</v>
+        <v>133.19900000000001</v>
       </c>
       <c r="E187">
-        <v>131.578</v>
+        <v>131.333</v>
       </c>
       <c r="F187">
-        <v>132.67500000000001</v>
+        <v>132.26400000000001</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4466,19 +4466,19 @@
         <v>2</v>
       </c>
       <c r="B188" s="1">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C188">
-        <v>135.45500000000001</v>
+        <v>133.643</v>
       </c>
       <c r="D188">
-        <v>136.38200000000001</v>
+        <v>133.893</v>
       </c>
       <c r="E188">
-        <v>133.358</v>
+        <v>131.578</v>
       </c>
       <c r="F188">
-        <v>133.68600000000001</v>
+        <v>132.67500000000001</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4486,19 +4486,19 @@
         <v>2</v>
       </c>
       <c r="B189" s="1">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C189">
-        <v>136.53399999999999</v>
+        <v>135.45500000000001</v>
       </c>
       <c r="D189">
-        <v>136.929</v>
+        <v>136.38200000000001</v>
       </c>
       <c r="E189">
-        <v>134.791</v>
+        <v>133.358</v>
       </c>
       <c r="F189">
-        <v>135.63800000000001</v>
+        <v>133.68600000000001</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4506,19 +4506,19 @@
         <v>2</v>
       </c>
       <c r="B190" s="1">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C190">
-        <v>134.55600000000001</v>
+        <v>136.53399999999999</v>
       </c>
       <c r="D190">
-        <v>136.95699999999999</v>
+        <v>136.929</v>
       </c>
       <c r="E190">
-        <v>134.38900000000001</v>
+        <v>134.791</v>
       </c>
       <c r="F190">
-        <v>136.589</v>
+        <v>135.63800000000001</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4526,19 +4526,19 @@
         <v>2</v>
       </c>
       <c r="B191" s="1">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C191">
-        <v>134.81899999999999</v>
+        <v>134.55600000000001</v>
       </c>
       <c r="D191">
-        <v>135.10599999999999</v>
+        <v>136.95699999999999</v>
       </c>
       <c r="E191">
-        <v>133.43100000000001</v>
+        <v>134.38900000000001</v>
       </c>
       <c r="F191">
-        <v>134.56100000000001</v>
+        <v>136.589</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4546,19 +4546,19 @@
         <v>2</v>
       </c>
       <c r="B192" s="1">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C192">
-        <v>135.517</v>
+        <v>134.81899999999999</v>
       </c>
       <c r="D192">
-        <v>136.13200000000001</v>
+        <v>135.10599999999999</v>
       </c>
       <c r="E192">
-        <v>133.148</v>
+        <v>133.43100000000001</v>
       </c>
       <c r="F192">
-        <v>135.035</v>
+        <v>134.56100000000001</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4566,19 +4566,19 @@
         <v>2</v>
       </c>
       <c r="B193" s="1">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C193">
-        <v>136.64099999999999</v>
+        <v>135.517</v>
       </c>
       <c r="D193">
-        <v>137.43299999999999</v>
+        <v>136.13200000000001</v>
       </c>
       <c r="E193">
-        <v>134.99199999999999</v>
+        <v>133.148</v>
       </c>
       <c r="F193">
-        <v>135.47499999999999</v>
+        <v>135.035</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4586,19 +4586,19 @@
         <v>2</v>
       </c>
       <c r="B194" s="1">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C194">
-        <v>132.66499999999999</v>
+        <v>136.64099999999999</v>
       </c>
       <c r="D194">
-        <v>136.91300000000001</v>
+        <v>137.43299999999999</v>
       </c>
       <c r="E194">
-        <v>132.62899999999999</v>
+        <v>134.99199999999999</v>
       </c>
       <c r="F194">
-        <v>136.58099999999999</v>
+        <v>135.47499999999999</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4606,19 +4606,19 @@
         <v>2</v>
       </c>
       <c r="B195" s="1">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C195">
-        <v>135.84299999999999</v>
+        <v>132.66499999999999</v>
       </c>
       <c r="D195">
-        <v>136.352</v>
+        <v>136.91300000000001</v>
       </c>
       <c r="E195">
-        <v>132.22399999999999</v>
+        <v>132.62899999999999</v>
       </c>
       <c r="F195">
-        <v>132.672</v>
+        <v>136.58099999999999</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4626,19 +4626,19 @@
         <v>2</v>
       </c>
       <c r="B196" s="1">
-        <v>40778</v>
+        <v>40785</v>
       </c>
       <c r="C196">
-        <v>138.72399999999999</v>
+        <v>135.84299999999999</v>
       </c>
       <c r="D196">
-        <v>138.95099999999999</v>
+        <v>136.352</v>
       </c>
       <c r="E196">
-        <v>135.25200000000001</v>
+        <v>132.22399999999999</v>
       </c>
       <c r="F196">
-        <v>135.74299999999999</v>
+        <v>132.672</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4646,19 +4646,19 @@
         <v>2</v>
       </c>
       <c r="B197" s="1">
-        <v>40771</v>
+        <v>40778</v>
       </c>
       <c r="C197">
-        <v>138.03200000000001</v>
+        <v>138.72399999999999</v>
       </c>
       <c r="D197">
-        <v>138.93</v>
+        <v>138.95099999999999</v>
       </c>
       <c r="E197">
-        <v>137.054</v>
+        <v>135.25200000000001</v>
       </c>
       <c r="F197">
-        <v>138.88999999999999</v>
+        <v>135.74299999999999</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4666,19 +4666,19 @@
         <v>2</v>
       </c>
       <c r="B198" s="1">
-        <v>40764</v>
+        <v>40771</v>
       </c>
       <c r="C198">
-        <v>136.089</v>
+        <v>138.03200000000001</v>
       </c>
       <c r="D198">
-        <v>138.85</v>
+        <v>138.93</v>
       </c>
       <c r="E198">
-        <v>136.08600000000001</v>
+        <v>137.054</v>
       </c>
       <c r="F198">
-        <v>138.11600000000001</v>
+        <v>138.88999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4686,19 +4686,19 @@
         <v>2</v>
       </c>
       <c r="B199" s="1">
-        <v>40757</v>
+        <v>40764</v>
       </c>
       <c r="C199">
-        <v>135.99</v>
+        <v>136.089</v>
       </c>
       <c r="D199">
-        <v>136.71199999999999</v>
+        <v>138.85</v>
       </c>
       <c r="E199">
-        <v>134.99299999999999</v>
+        <v>136.08600000000001</v>
       </c>
       <c r="F199">
-        <v>136.16200000000001</v>
+        <v>138.11600000000001</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4706,25 +4706,25 @@
         <v>2</v>
       </c>
       <c r="B200" s="1">
-        <v>40750</v>
+        <v>40757</v>
       </c>
       <c r="C200">
-        <v>135.75</v>
+        <v>135.99</v>
       </c>
       <c r="D200">
-        <v>137.33099999999999</v>
+        <v>136.71199999999999</v>
       </c>
       <c r="E200">
-        <v>135.53399999999999</v>
+        <v>134.99299999999999</v>
       </c>
       <c r="F200">
-        <v>136.07599999999999</v>
+        <v>136.16200000000001</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
